--- a/database/industries/siman/sekhash/product/monthly.xlsx
+++ b/database/industries/siman/sekhash/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5445" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5431" uniqueCount="105">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -62,46 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve">مقدار تولید</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ماه </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">11 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1397/11</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2064,6 +2024,46 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ماه </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">منتهی به </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1402/01</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">کلینکر</t>
   </si>
   <si>
@@ -3525,31 +3525,31 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="n">
-        <v>70951</v>
+        <v>52388</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>52388</v>
+        <v>74265</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>74265</v>
+        <v>76537</v>
       </c>
       <c r="H11" s="12" t="n">
-        <v>76537</v>
+        <v>74738</v>
       </c>
       <c r="I11" s="12" t="n">
-        <v>74738</v>
+        <v>72420</v>
       </c>
       <c r="J11" s="12" t="n">
-        <v>72420</v>
+        <v>38538</v>
       </c>
       <c r="K11" s="12" t="n">
-        <v>38538</v>
+        <v>75150</v>
       </c>
       <c r="L11" s="12" t="n">
-        <v>75150</v>
+        <v>76754</v>
       </c>
       <c r="M11" s="12" t="n">
-        <v>76754</v>
+        <v>0</v>
       </c>
       <c r="N11" s="12" t="n">
         <v>0</v>
@@ -3563,8 +3563,8 @@
       <c r="Q11" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="R11" s="12" t="n">
-        <v>0</v>
+      <c r="R11" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S11" s="13" t="s">
         <v>57</v>
@@ -3731,71 +3731,71 @@
       <c r="T12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U12" s="16" t="s">
-        <v>57</v>
+      <c r="U12" s="16" t="n">
+        <v>19535</v>
       </c>
       <c r="V12" s="16" t="n">
-        <v>19535</v>
+        <v>18979</v>
       </c>
       <c r="W12" s="16" t="n">
-        <v>18979</v>
+        <v>17145</v>
       </c>
       <c r="X12" s="16" t="n">
-        <v>17145</v>
+        <v>13691</v>
       </c>
       <c r="Y12" s="16" t="n">
-        <v>13691</v>
+        <v>16231</v>
       </c>
       <c r="Z12" s="16" t="n">
-        <v>16231</v>
+        <v>24105</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>24105</v>
+        <v>26218</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>26218</v>
+        <v>11478</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>11478</v>
+        <v>9140</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>9140</v>
+        <v>9039</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>9039</v>
+        <v>23707</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>23707</v>
+        <v>24395</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>24395</v>
+        <v>15816</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>15816</v>
+        <v>12129</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>12129</v>
+        <v>38521</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>38521</v>
+        <v>38498</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>38498</v>
+        <v>15806</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>15806</v>
+        <v>14499</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>14499</v>
+        <v>16353</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>16353</v>
+        <v>24464</v>
       </c>
       <c r="AO12" s="16" t="n">
-        <v>24464</v>
-      </c>
-      <c r="AP12" s="16" t="n">
         <v>28957</v>
+      </c>
+      <c r="AP12" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ12" s="16" t="s">
         <v>57</v>
@@ -3866,33 +3866,33 @@
       <c r="L13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M13" s="13" t="s">
-        <v>57</v>
+      <c r="M13" s="13" t="n">
+        <v>10363</v>
       </c>
       <c r="N13" s="13" t="n">
-        <v>10363</v>
+        <v>15477</v>
       </c>
       <c r="O13" s="13" t="n">
-        <v>15477</v>
+        <v>10725</v>
       </c>
       <c r="P13" s="13" t="n">
-        <v>10725</v>
+        <v>14503</v>
       </c>
       <c r="Q13" s="13" t="n">
-        <v>14503</v>
+        <v>26202</v>
       </c>
       <c r="R13" s="13" t="n">
-        <v>26202</v>
+        <v>7672</v>
       </c>
       <c r="S13" s="13" t="n">
-        <v>7672</v>
+        <v>11539</v>
       </c>
       <c r="T13" s="13" t="n">
-        <v>11539</v>
-      </c>
-      <c r="U13" s="13" t="n">
         <v>16207</v>
       </c>
+      <c r="U13" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V13" s="13" t="s">
         <v>57</v>
       </c>
@@ -3953,44 +3953,44 @@
       <c r="AO13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP13" s="13" t="s">
-        <v>57</v>
+      <c r="AP13" s="13" t="n">
+        <v>11847</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>11847</v>
+        <v>20700</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>20700</v>
+        <v>6451</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>6451</v>
+        <v>31884</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>31884</v>
+        <v>16923</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>16923</v>
+        <v>20611</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>20611</v>
+        <v>24488</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>24488</v>
+        <v>26781</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>26781</v>
+        <v>22282</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>22282</v>
+        <v>18966</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>18966</v>
+        <v>28279</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>28279</v>
+        <v>28462</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>28462</v>
+        <v>23992</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4025,14 +4025,14 @@
       <c r="L14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="M14" s="16" t="s">
-        <v>57</v>
+      <c r="M14" s="16" t="n">
+        <v>394</v>
       </c>
       <c r="N14" s="16" t="n">
-        <v>394</v>
+        <v>591</v>
       </c>
       <c r="O14" s="16" t="n">
-        <v>591</v>
+        <v>0</v>
       </c>
       <c r="P14" s="16" t="n">
         <v>0</v>
@@ -4040,8 +4040,8 @@
       <c r="Q14" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R14" s="16" t="n">
-        <v>0</v>
+      <c r="R14" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S14" s="16" t="s">
         <v>57</v>
@@ -4049,8 +4049,8 @@
       <c r="T14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U14" s="16" t="s">
-        <v>57</v>
+      <c r="U14" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V14" s="16" t="n">
         <v>0</v>
@@ -4076,8 +4076,8 @@
       <c r="AC14" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD14" s="16" t="n">
-        <v>0</v>
+      <c r="AD14" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE14" s="16" t="s">
         <v>57</v>
@@ -4161,31 +4161,31 @@
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="n">
-        <v>62093</v>
+        <v>82550</v>
       </c>
       <c r="F15" s="13" t="n">
-        <v>82550</v>
+        <v>50449</v>
       </c>
       <c r="G15" s="13" t="n">
-        <v>50449</v>
+        <v>66460</v>
       </c>
       <c r="H15" s="13" t="n">
-        <v>66460</v>
+        <v>49584</v>
       </c>
       <c r="I15" s="13" t="n">
-        <v>49584</v>
+        <v>55489</v>
       </c>
       <c r="J15" s="13" t="n">
-        <v>55489</v>
+        <v>48432</v>
       </c>
       <c r="K15" s="13" t="n">
-        <v>48432</v>
+        <v>66963</v>
       </c>
       <c r="L15" s="13" t="n">
-        <v>66963</v>
+        <v>67582</v>
       </c>
       <c r="M15" s="13" t="n">
-        <v>67582</v>
+        <v>0</v>
       </c>
       <c r="N15" s="13" t="n">
         <v>0</v>
@@ -4199,8 +4199,8 @@
       <c r="Q15" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R15" s="13" t="n">
-        <v>0</v>
+      <c r="R15" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S15" s="13" t="s">
         <v>57</v>
@@ -4343,23 +4343,23 @@
       <c r="L16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="M16" s="16" t="s">
-        <v>57</v>
+      <c r="M16" s="16" t="n">
+        <v>7023</v>
       </c>
       <c r="N16" s="16" t="n">
-        <v>7023</v>
+        <v>7421</v>
       </c>
       <c r="O16" s="16" t="n">
-        <v>7421</v>
+        <v>13805</v>
       </c>
       <c r="P16" s="16" t="n">
-        <v>13805</v>
+        <v>954</v>
       </c>
       <c r="Q16" s="16" t="n">
-        <v>954</v>
-      </c>
-      <c r="R16" s="16" t="n">
         <v>148</v>
+      </c>
+      <c r="R16" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S16" s="16" t="s">
         <v>57</v>
@@ -4526,71 +4526,71 @@
       <c r="T17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U17" s="13" t="s">
-        <v>57</v>
+      <c r="U17" s="13" t="n">
+        <v>17923</v>
       </c>
       <c r="V17" s="13" t="n">
-        <v>17923</v>
+        <v>17539</v>
       </c>
       <c r="W17" s="13" t="n">
-        <v>17539</v>
+        <v>28386</v>
       </c>
       <c r="X17" s="13" t="n">
-        <v>28386</v>
+        <v>1399</v>
       </c>
       <c r="Y17" s="13" t="n">
-        <v>1399</v>
+        <v>24737</v>
       </c>
       <c r="Z17" s="13" t="n">
-        <v>24737</v>
+        <v>27378</v>
       </c>
       <c r="AA17" s="13" t="n">
-        <v>27378</v>
+        <v>16964</v>
       </c>
       <c r="AB17" s="13" t="n">
-        <v>16964</v>
+        <v>19955</v>
       </c>
       <c r="AC17" s="13" t="n">
-        <v>19955</v>
+        <v>12037</v>
       </c>
       <c r="AD17" s="13" t="n">
-        <v>12037</v>
+        <v>8313</v>
       </c>
       <c r="AE17" s="13" t="n">
-        <v>8313</v>
+        <v>27188</v>
       </c>
       <c r="AF17" s="13" t="n">
-        <v>27188</v>
+        <v>29023</v>
       </c>
       <c r="AG17" s="13" t="n">
-        <v>29023</v>
+        <v>10458</v>
       </c>
       <c r="AH17" s="13" t="n">
-        <v>10458</v>
+        <v>10772</v>
       </c>
       <c r="AI17" s="13" t="n">
-        <v>10772</v>
+        <v>24955</v>
       </c>
       <c r="AJ17" s="13" t="n">
-        <v>24955</v>
+        <v>21194</v>
       </c>
       <c r="AK17" s="13" t="n">
-        <v>21194</v>
+        <v>19465</v>
       </c>
       <c r="AL17" s="13" t="n">
-        <v>19465</v>
+        <v>17088</v>
       </c>
       <c r="AM17" s="13" t="n">
-        <v>17088</v>
+        <v>17407</v>
       </c>
       <c r="AN17" s="13" t="n">
-        <v>17407</v>
+        <v>25648</v>
       </c>
       <c r="AO17" s="13" t="n">
-        <v>25648</v>
-      </c>
-      <c r="AP17" s="13" t="n">
         <v>30631</v>
+      </c>
+      <c r="AP17" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ17" s="13" t="s">
         <v>57</v>
@@ -4676,18 +4676,18 @@
       <c r="Q18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R18" s="16" t="s">
-        <v>57</v>
+      <c r="R18" s="16" t="n">
+        <v>40010</v>
       </c>
       <c r="S18" s="16" t="n">
-        <v>40010</v>
+        <v>24783</v>
       </c>
       <c r="T18" s="16" t="n">
-        <v>24783</v>
-      </c>
-      <c r="U18" s="16" t="n">
         <v>38390</v>
       </c>
+      <c r="U18" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="V18" s="16" t="s">
         <v>57</v>
       </c>
@@ -4748,44 +4748,44 @@
       <c r="AO18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP18" s="16" t="s">
-        <v>57</v>
+      <c r="AP18" s="16" t="n">
+        <v>9332</v>
       </c>
       <c r="AQ18" s="16" t="n">
-        <v>9332</v>
+        <v>9497</v>
       </c>
       <c r="AR18" s="16" t="n">
-        <v>9497</v>
+        <v>18598</v>
       </c>
       <c r="AS18" s="16" t="n">
-        <v>18598</v>
+        <v>10396</v>
       </c>
       <c r="AT18" s="16" t="n">
-        <v>10396</v>
+        <v>12694</v>
       </c>
       <c r="AU18" s="16" t="n">
-        <v>12694</v>
+        <v>19651</v>
       </c>
       <c r="AV18" s="16" t="n">
-        <v>19651</v>
+        <v>21578</v>
       </c>
       <c r="AW18" s="16" t="n">
-        <v>21578</v>
+        <v>23382</v>
       </c>
       <c r="AX18" s="16" t="n">
-        <v>23382</v>
+        <v>23945</v>
       </c>
       <c r="AY18" s="16" t="n">
-        <v>23945</v>
+        <v>19573</v>
       </c>
       <c r="AZ18" s="16" t="n">
-        <v>19573</v>
+        <v>20484</v>
       </c>
       <c r="BA18" s="16" t="n">
-        <v>20484</v>
+        <v>24327</v>
       </c>
       <c r="BB18" s="16" t="n">
-        <v>24327</v>
+        <v>18062</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4835,18 +4835,18 @@
       <c r="Q19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R19" s="13" t="s">
-        <v>57</v>
+      <c r="R19" s="13" t="n">
+        <v>4913</v>
       </c>
       <c r="S19" s="13" t="n">
-        <v>4913</v>
+        <v>4604</v>
       </c>
       <c r="T19" s="13" t="n">
-        <v>4604</v>
-      </c>
-      <c r="U19" s="13" t="n">
         <v>7127</v>
       </c>
+      <c r="U19" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V19" s="13" t="s">
         <v>57</v>
       </c>
@@ -4907,44 +4907,44 @@
       <c r="AO19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP19" s="13" t="s">
-        <v>57</v>
+      <c r="AP19" s="13" t="n">
+        <v>1498</v>
       </c>
       <c r="AQ19" s="13" t="n">
-        <v>1498</v>
+        <v>3329</v>
       </c>
       <c r="AR19" s="13" t="n">
-        <v>3329</v>
+        <v>3319</v>
       </c>
       <c r="AS19" s="13" t="n">
-        <v>3319</v>
+        <v>4222</v>
       </c>
       <c r="AT19" s="13" t="n">
-        <v>4222</v>
+        <v>5323</v>
       </c>
       <c r="AU19" s="13" t="n">
-        <v>5323</v>
+        <v>6950</v>
       </c>
       <c r="AV19" s="13" t="n">
-        <v>6950</v>
+        <v>6183</v>
       </c>
       <c r="AW19" s="13" t="n">
-        <v>6183</v>
+        <v>6838</v>
       </c>
       <c r="AX19" s="13" t="n">
-        <v>6838</v>
+        <v>8041</v>
       </c>
       <c r="AY19" s="13" t="n">
-        <v>8041</v>
+        <v>6752</v>
       </c>
       <c r="AZ19" s="13" t="n">
-        <v>6752</v>
+        <v>10658</v>
       </c>
       <c r="BA19" s="13" t="n">
-        <v>10658</v>
+        <v>9264</v>
       </c>
       <c r="BB19" s="13" t="n">
-        <v>9264</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4994,17 +4994,17 @@
       <c r="Q20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R20" s="16" t="s">
-        <v>57</v>
+      <c r="R20" s="16" t="n">
+        <v>11528</v>
       </c>
       <c r="S20" s="16" t="n">
-        <v>11528</v>
+        <v>8653</v>
       </c>
       <c r="T20" s="16" t="n">
-        <v>8653</v>
-      </c>
-      <c r="U20" s="16" t="n">
         <v>11048</v>
+      </c>
+      <c r="U20" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="V20" s="16" t="s">
         <v>57</v>
@@ -5138,23 +5138,23 @@
       <c r="L21" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="13" t="s">
-        <v>57</v>
+      <c r="M21" s="13" t="n">
+        <v>38451</v>
       </c>
       <c r="N21" s="13" t="n">
-        <v>38451</v>
+        <v>36713</v>
       </c>
       <c r="O21" s="13" t="n">
-        <v>36713</v>
+        <v>29595</v>
       </c>
       <c r="P21" s="13" t="n">
-        <v>29595</v>
+        <v>39325</v>
       </c>
       <c r="Q21" s="13" t="n">
-        <v>39325</v>
-      </c>
-      <c r="R21" s="13" t="n">
         <v>42632</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S21" s="13" t="s">
         <v>57</v>
@@ -5297,23 +5297,23 @@
       <c r="L22" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="M22" s="16" t="s">
-        <v>57</v>
+      <c r="M22" s="16" t="n">
+        <v>5579</v>
       </c>
       <c r="N22" s="16" t="n">
-        <v>5579</v>
+        <v>5511</v>
       </c>
       <c r="O22" s="16" t="n">
-        <v>5511</v>
+        <v>5300</v>
       </c>
       <c r="P22" s="16" t="n">
-        <v>5300</v>
+        <v>6328</v>
       </c>
       <c r="Q22" s="16" t="n">
-        <v>6328</v>
-      </c>
-      <c r="R22" s="16" t="n">
         <v>7969</v>
+      </c>
+      <c r="R22" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S22" s="16" t="s">
         <v>57</v>
@@ -5456,32 +5456,32 @@
       <c r="L23" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M23" s="13" t="s">
-        <v>57</v>
+      <c r="M23" s="13" t="n">
+        <v>5277</v>
       </c>
       <c r="N23" s="13" t="n">
-        <v>5277</v>
+        <v>938</v>
       </c>
       <c r="O23" s="13" t="n">
-        <v>938</v>
+        <v>0</v>
       </c>
       <c r="P23" s="13" t="n">
         <v>0</v>
       </c>
       <c r="Q23" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" s="13" t="n">
         <v>49970</v>
       </c>
+      <c r="R23" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S23" s="13" t="s">
         <v>57</v>
       </c>
       <c r="T23" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U23" s="13" t="s">
-        <v>57</v>
+      <c r="U23" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V23" s="13" t="n">
         <v>0</v>
@@ -5492,8 +5492,8 @@
       <c r="X23" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Y23" s="13" t="n">
-        <v>0</v>
+      <c r="Y23" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="Z23" s="13" t="s">
         <v>57</v>
@@ -5639,41 +5639,41 @@
       <c r="T24" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U24" s="16" t="s">
-        <v>57</v>
+      <c r="U24" s="16" t="n">
+        <v>3893</v>
       </c>
       <c r="V24" s="16" t="n">
-        <v>3893</v>
+        <v>5758</v>
       </c>
       <c r="W24" s="16" t="n">
-        <v>5758</v>
+        <v>3461</v>
       </c>
       <c r="X24" s="16" t="n">
-        <v>3461</v>
+        <v>4543</v>
       </c>
       <c r="Y24" s="16" t="n">
-        <v>4543</v>
+        <v>1071</v>
       </c>
       <c r="Z24" s="16" t="n">
-        <v>1071</v>
+        <v>119</v>
       </c>
       <c r="AA24" s="16" t="n">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="AB24" s="16" t="n">
-        <v>215</v>
+        <v>979</v>
       </c>
       <c r="AC24" s="16" t="n">
-        <v>979</v>
+        <v>492</v>
       </c>
       <c r="AD24" s="16" t="n">
-        <v>492</v>
+        <v>455</v>
       </c>
       <c r="AE24" s="16" t="n">
-        <v>455</v>
+        <v>203</v>
       </c>
       <c r="AF24" s="16" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="16" t="n">
         <v>0</v>
@@ -5702,8 +5702,8 @@
       <c r="AO24" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP24" s="16" t="n">
-        <v>0</v>
+      <c r="AP24" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ24" s="16" t="s">
         <v>57</v>
@@ -5774,32 +5774,32 @@
       <c r="L25" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M25" s="13" t="s">
-        <v>57</v>
+      <c r="M25" s="13" t="n">
+        <v>10382</v>
       </c>
       <c r="N25" s="13" t="n">
-        <v>10382</v>
+        <v>14913</v>
       </c>
       <c r="O25" s="13" t="n">
-        <v>14913</v>
+        <v>9852</v>
       </c>
       <c r="P25" s="13" t="n">
-        <v>9852</v>
+        <v>13675</v>
       </c>
       <c r="Q25" s="13" t="n">
-        <v>13675</v>
-      </c>
-      <c r="R25" s="13" t="n">
         <v>10746</v>
       </c>
-      <c r="S25" s="13" t="s">
-        <v>57</v>
+      <c r="R25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S25" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="T25" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="U25" s="13" t="n">
-        <v>0</v>
+      <c r="U25" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V25" s="13" t="s">
         <v>57</v>
@@ -5861,44 +5861,44 @@
       <c r="AO25" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP25" s="13" t="s">
-        <v>57</v>
+      <c r="AP25" s="13" t="n">
+        <v>24520</v>
       </c>
       <c r="AQ25" s="13" t="n">
-        <v>24520</v>
+        <v>24162</v>
       </c>
       <c r="AR25" s="13" t="n">
-        <v>24162</v>
+        <v>18481</v>
       </c>
       <c r="AS25" s="13" t="n">
-        <v>18481</v>
+        <v>14799</v>
       </c>
       <c r="AT25" s="13" t="n">
-        <v>14799</v>
+        <v>16849</v>
       </c>
       <c r="AU25" s="13" t="n">
-        <v>16849</v>
+        <v>22314</v>
       </c>
       <c r="AV25" s="13" t="n">
-        <v>22314</v>
+        <v>22496</v>
       </c>
       <c r="AW25" s="13" t="n">
-        <v>22496</v>
+        <v>24932</v>
       </c>
       <c r="AX25" s="13" t="n">
-        <v>24932</v>
+        <v>30240</v>
       </c>
       <c r="AY25" s="13" t="n">
-        <v>30240</v>
+        <v>27377</v>
       </c>
       <c r="AZ25" s="13" t="n">
-        <v>27377</v>
+        <v>25396</v>
       </c>
       <c r="BA25" s="13" t="n">
-        <v>25396</v>
+        <v>25619</v>
       </c>
       <c r="BB25" s="13" t="n">
-        <v>25619</v>
+        <v>20404</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5957,38 +5957,38 @@
       <c r="T26" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U26" s="16" t="s">
-        <v>57</v>
+      <c r="U26" s="16" t="n">
+        <v>77</v>
       </c>
       <c r="V26" s="16" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="W26" s="16" t="n">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="X26" s="16" t="n">
-        <v>580</v>
+        <v>1709</v>
       </c>
       <c r="Y26" s="16" t="n">
-        <v>1709</v>
+        <v>193</v>
       </c>
       <c r="Z26" s="16" t="n">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="16" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AB26" s="16" t="n">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="AC26" s="16" t="n">
-        <v>162</v>
+        <v>1231</v>
       </c>
       <c r="AD26" s="16" t="n">
-        <v>1231</v>
+        <v>22</v>
       </c>
       <c r="AE26" s="16" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="16" t="n">
         <v>0</v>
@@ -6020,8 +6020,8 @@
       <c r="AO26" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP26" s="16" t="n">
-        <v>0</v>
+      <c r="AP26" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ26" s="16" t="s">
         <v>57</v>
@@ -6087,10 +6087,10 @@
         <v>0</v>
       </c>
       <c r="K27" s="13" t="n">
-        <v>0</v>
+        <v>142112</v>
       </c>
       <c r="L27" s="13" t="n">
-        <v>142112</v>
+        <v>0</v>
       </c>
       <c r="M27" s="13" t="n">
         <v>0</v>
@@ -6107,8 +6107,8 @@
       <c r="Q27" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R27" s="13" t="n">
-        <v>0</v>
+      <c r="R27" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S27" s="13" t="s">
         <v>57</v>
@@ -6266,18 +6266,18 @@
       <c r="Q28" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R28" s="16" t="s">
-        <v>57</v>
+      <c r="R28" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="S28" s="16" t="n">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="T28" s="16" t="n">
-        <v>194</v>
-      </c>
-      <c r="U28" s="16" t="n">
         <v>172</v>
       </c>
+      <c r="U28" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="V28" s="16" t="s">
         <v>57</v>
       </c>
@@ -6338,44 +6338,44 @@
       <c r="AO28" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP28" s="16" t="s">
-        <v>57</v>
+      <c r="AP28" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ28" s="16" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AR28" s="16" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="AS28" s="16" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AT28" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AU28" s="16" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AV28" s="16" t="n">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="AW28" s="16" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="AX28" s="16" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AY28" s="16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ28" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA28" s="16" t="n">
+        <v>26</v>
+      </c>
+      <c r="BB28" s="16" t="n">
         <v>24</v>
-      </c>
-      <c r="AZ28" s="16" t="n">
-        <v>25</v>
-      </c>
-      <c r="BA28" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB28" s="16" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6410,11 +6410,11 @@
       <c r="L29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="N29" s="13" t="n">
-        <v>0</v>
+      <c r="M29" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="O29" s="13" t="s">
         <v>57</v>
@@ -6569,74 +6569,74 @@
       <c r="L30" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="M30" s="16" t="s">
-        <v>57</v>
+      <c r="M30" s="16" t="n">
+        <v>72</v>
       </c>
       <c r="N30" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="16" t="n">
+        <v>25</v>
+      </c>
+      <c r="P30" s="16" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q30" s="16" t="n">
+        <v>96</v>
+      </c>
+      <c r="R30" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="S30" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="T30" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="U30" s="16" t="n">
+        <v>123</v>
+      </c>
+      <c r="V30" s="16" t="n">
+        <v>149</v>
+      </c>
+      <c r="W30" s="16" t="n">
+        <v>123</v>
+      </c>
+      <c r="X30" s="16" t="n">
+        <v>201</v>
+      </c>
+      <c r="Y30" s="16" t="n">
         <v>72</v>
       </c>
-      <c r="O30" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" s="16" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q30" s="16" t="n">
-        <v>70</v>
-      </c>
-      <c r="R30" s="16" t="n">
-        <v>96</v>
-      </c>
-      <c r="S30" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="T30" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="U30" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="V30" s="16" t="n">
+      <c r="Z30" s="16" t="n">
         <v>123</v>
       </c>
-      <c r="W30" s="16" t="n">
-        <v>149</v>
-      </c>
-      <c r="X30" s="16" t="n">
-        <v>123</v>
-      </c>
-      <c r="Y30" s="16" t="n">
-        <v>201</v>
-      </c>
-      <c r="Z30" s="16" t="n">
-        <v>72</v>
-      </c>
       <c r="AA30" s="16" t="n">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="AB30" s="16" t="n">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="AC30" s="16" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="16" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AE30" s="16" t="n">
         <v>26</v>
       </c>
       <c r="AF30" s="16" t="n">
+        <v>97</v>
+      </c>
+      <c r="AG30" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="16" t="n">
         <v>26</v>
       </c>
-      <c r="AG30" s="16" t="n">
-        <v>97</v>
-      </c>
-      <c r="AH30" s="16" t="n">
-        <v>0</v>
-      </c>
       <c r="AI30" s="16" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AJ30" s="16" t="n">
         <v>0</v>
@@ -6645,19 +6645,19 @@
         <v>0</v>
       </c>
       <c r="AL30" s="16" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AM30" s="16" t="n">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="AN30" s="16" t="n">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="AO30" s="16" t="n">
-        <v>49</v>
-      </c>
-      <c r="AP30" s="16" t="n">
         <v>15</v>
+      </c>
+      <c r="AP30" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ30" s="16" t="s">
         <v>57</v>
@@ -6731,8 +6731,8 @@
       <c r="M31" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="N31" s="13" t="s">
-        <v>57</v>
+      <c r="N31" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="O31" s="13" t="n">
         <v>0</v>
@@ -6743,8 +6743,8 @@
       <c r="Q31" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R31" s="13" t="n">
-        <v>0</v>
+      <c r="R31" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S31" s="13" t="s">
         <v>57</v>
@@ -6752,8 +6752,8 @@
       <c r="T31" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U31" s="13" t="s">
-        <v>57</v>
+      <c r="U31" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V31" s="13" t="n">
         <v>0</v>
@@ -6779,8 +6779,8 @@
       <c r="AC31" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD31" s="13" t="n">
-        <v>0</v>
+      <c r="AD31" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE31" s="13" t="s">
         <v>57</v>
@@ -6911,71 +6911,71 @@
       <c r="T32" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U32" s="16" t="s">
-        <v>57</v>
+      <c r="U32" s="16" t="n">
+        <v>7543</v>
       </c>
       <c r="V32" s="16" t="n">
-        <v>7543</v>
+        <v>4269</v>
       </c>
       <c r="W32" s="16" t="n">
-        <v>4269</v>
+        <v>5990</v>
       </c>
       <c r="X32" s="16" t="n">
-        <v>5990</v>
+        <v>6724</v>
       </c>
       <c r="Y32" s="16" t="n">
-        <v>6724</v>
+        <v>8213</v>
       </c>
       <c r="Z32" s="16" t="n">
-        <v>8213</v>
+        <v>8370</v>
       </c>
       <c r="AA32" s="16" t="n">
-        <v>8370</v>
+        <v>6817</v>
       </c>
       <c r="AB32" s="16" t="n">
-        <v>6817</v>
+        <v>8584</v>
       </c>
       <c r="AC32" s="16" t="n">
-        <v>8584</v>
+        <v>9415</v>
       </c>
       <c r="AD32" s="16" t="n">
-        <v>9415</v>
+        <v>6261</v>
       </c>
       <c r="AE32" s="16" t="n">
-        <v>6261</v>
+        <v>7077</v>
       </c>
       <c r="AF32" s="16" t="n">
-        <v>7077</v>
+        <v>8483</v>
       </c>
       <c r="AG32" s="16" t="n">
-        <v>8483</v>
+        <v>5481</v>
       </c>
       <c r="AH32" s="16" t="n">
-        <v>5481</v>
+        <v>3523</v>
       </c>
       <c r="AI32" s="16" t="n">
-        <v>3523</v>
+        <v>1518</v>
       </c>
       <c r="AJ32" s="16" t="n">
-        <v>1518</v>
+        <v>3580</v>
       </c>
       <c r="AK32" s="16" t="n">
-        <v>3580</v>
+        <v>9750</v>
       </c>
       <c r="AL32" s="16" t="n">
-        <v>9750</v>
+        <v>7779</v>
       </c>
       <c r="AM32" s="16" t="n">
-        <v>7779</v>
+        <v>7653</v>
       </c>
       <c r="AN32" s="16" t="n">
-        <v>7653</v>
+        <v>6443</v>
       </c>
       <c r="AO32" s="16" t="n">
-        <v>6443</v>
-      </c>
-      <c r="AP32" s="16" t="n">
         <v>8403</v>
+      </c>
+      <c r="AP32" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ32" s="16" t="s">
         <v>57</v>
@@ -7070,71 +7070,71 @@
       <c r="T33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U33" s="13" t="s">
-        <v>57</v>
+      <c r="U33" s="13" t="n">
+        <v>53753</v>
       </c>
       <c r="V33" s="13" t="n">
-        <v>53753</v>
+        <v>37771</v>
       </c>
       <c r="W33" s="13" t="n">
-        <v>37771</v>
+        <v>35177</v>
       </c>
       <c r="X33" s="13" t="n">
-        <v>35177</v>
+        <v>28467</v>
       </c>
       <c r="Y33" s="13" t="n">
-        <v>28467</v>
+        <v>34535</v>
       </c>
       <c r="Z33" s="13" t="n">
-        <v>34535</v>
+        <v>39016</v>
       </c>
       <c r="AA33" s="13" t="n">
-        <v>39016</v>
+        <v>21668</v>
       </c>
       <c r="AB33" s="13" t="n">
-        <v>21668</v>
+        <v>37310</v>
       </c>
       <c r="AC33" s="13" t="n">
-        <v>37310</v>
+        <v>44600</v>
       </c>
       <c r="AD33" s="13" t="n">
-        <v>44600</v>
+        <v>29585</v>
       </c>
       <c r="AE33" s="13" t="n">
-        <v>29585</v>
+        <v>26848</v>
       </c>
       <c r="AF33" s="13" t="n">
-        <v>26848</v>
+        <v>21528</v>
       </c>
       <c r="AG33" s="13" t="n">
-        <v>21528</v>
+        <v>14890</v>
       </c>
       <c r="AH33" s="13" t="n">
-        <v>14890</v>
+        <v>7978</v>
       </c>
       <c r="AI33" s="13" t="n">
-        <v>7978</v>
+        <v>2499</v>
       </c>
       <c r="AJ33" s="13" t="n">
-        <v>2499</v>
+        <v>7025</v>
       </c>
       <c r="AK33" s="13" t="n">
-        <v>7025</v>
+        <v>23996</v>
       </c>
       <c r="AL33" s="13" t="n">
-        <v>23996</v>
+        <v>25875</v>
       </c>
       <c r="AM33" s="13" t="n">
-        <v>25875</v>
+        <v>21044</v>
       </c>
       <c r="AN33" s="13" t="n">
-        <v>21044</v>
+        <v>19207</v>
       </c>
       <c r="AO33" s="13" t="n">
-        <v>19207</v>
-      </c>
-      <c r="AP33" s="13" t="n">
         <v>22237</v>
+      </c>
+      <c r="AP33" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ33" s="13" t="s">
         <v>57</v>
@@ -7220,17 +7220,17 @@
       <c r="Q34" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R34" s="16" t="s">
-        <v>57</v>
+      <c r="R34" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="S34" s="16" t="n">
-        <v>0</v>
+        <v>43250</v>
       </c>
       <c r="T34" s="16" t="n">
-        <v>43250</v>
-      </c>
-      <c r="U34" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="U34" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="V34" s="16" t="s">
         <v>57</v>
@@ -7385,14 +7385,14 @@
       <c r="S35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T35" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U35" s="13" t="n">
+      <c r="T35" s="13" t="n">
         <v>25</v>
       </c>
-      <c r="V35" s="13" t="s">
-        <v>57</v>
+      <c r="U35" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V35" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="W35" s="13" t="n">
         <v>0</v>
@@ -7401,13 +7401,13 @@
         <v>0</v>
       </c>
       <c r="Y35" s="13" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z35" s="13" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AA35" s="13" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="13" t="n">
         <v>0</v>
@@ -7415,65 +7415,65 @@
       <c r="AC35" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD35" s="13" t="n">
-        <v>0</v>
+      <c r="AD35" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF35" s="13" t="s">
-        <v>57</v>
+      <c r="AF35" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AG35" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AH35" s="13" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AI35" s="13" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AJ35" s="13" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AK35" s="13" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL35" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="AL35" s="13" t="n">
-        <v>46</v>
-      </c>
       <c r="AM35" s="13" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AN35" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO35" s="13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AP35" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ35" s="13" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="AP35" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ35" s="13" t="n">
+        <v>62</v>
       </c>
       <c r="AR35" s="13" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="AS35" s="13" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="AT35" s="13" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AU35" s="13" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AV35" s="13" t="n">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="AW35" s="13" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="AX35" s="13" t="n">
         <v>0</v>
@@ -7487,8 +7487,8 @@
       <c r="BA35" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB35" s="13" t="n">
-        <v>0</v>
+      <c r="BB35" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7559,8 +7559,8 @@
       <c r="X36" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="Y36" s="16" t="s">
-        <v>57</v>
+      <c r="Y36" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="Z36" s="16" t="n">
         <v>0</v>
@@ -7574,8 +7574,8 @@
       <c r="AC36" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD36" s="16" t="n">
-        <v>0</v>
+      <c r="AD36" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE36" s="16" t="s">
         <v>57</v>
@@ -7706,11 +7706,11 @@
       <c r="T37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U37" s="13" t="s">
-        <v>57</v>
+      <c r="U37" s="13" t="n">
+        <v>15</v>
       </c>
       <c r="V37" s="13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W37" s="13" t="n">
         <v>0</v>
@@ -7718,8 +7718,8 @@
       <c r="X37" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Y37" s="13" t="n">
-        <v>0</v>
+      <c r="Y37" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="Z37" s="13" t="s">
         <v>57</v>
@@ -7871,11 +7871,11 @@
       <c r="V38" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="W38" s="16" t="s">
-        <v>57</v>
+      <c r="W38" s="16" t="n">
+        <v>3</v>
       </c>
       <c r="X38" s="16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="16" t="n">
         <v>0</v>
@@ -7892,8 +7892,8 @@
       <c r="AC38" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD38" s="16" t="n">
-        <v>0</v>
+      <c r="AD38" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE38" s="16" t="s">
         <v>57</v>
@@ -7910,8 +7910,8 @@
       <c r="AI38" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AJ38" s="16" t="s">
-        <v>57</v>
+      <c r="AJ38" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AK38" s="16" t="n">
         <v>0</v>
@@ -7928,8 +7928,8 @@
       <c r="AO38" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP38" s="16" t="n">
-        <v>0</v>
+      <c r="AP38" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ38" s="16" t="s">
         <v>57</v>
@@ -8024,14 +8024,14 @@
       <c r="T39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U39" s="13" t="s">
-        <v>57</v>
+      <c r="U39" s="13" t="n">
+        <v>8991</v>
       </c>
       <c r="V39" s="13" t="n">
-        <v>8991</v>
+        <v>2461</v>
       </c>
       <c r="W39" s="13" t="n">
-        <v>2461</v>
+        <v>0</v>
       </c>
       <c r="X39" s="13" t="n">
         <v>0</v>
@@ -8049,13 +8049,13 @@
         <v>0</v>
       </c>
       <c r="AC39" s="13" t="n">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="AD39" s="13" t="n">
-        <v>235</v>
+        <v>1744</v>
       </c>
       <c r="AE39" s="13" t="n">
-        <v>1744</v>
+        <v>0</v>
       </c>
       <c r="AF39" s="13" t="n">
         <v>0</v>
@@ -8087,8 +8087,8 @@
       <c r="AO39" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP39" s="13" t="n">
-        <v>0</v>
+      <c r="AP39" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ39" s="13" t="s">
         <v>57</v>
@@ -8183,14 +8183,14 @@
       <c r="T40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U40" s="16" t="s">
-        <v>57</v>
+      <c r="U40" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V40" s="16" t="n">
-        <v>0</v>
+        <v>43250</v>
       </c>
       <c r="W40" s="16" t="n">
-        <v>43250</v>
+        <v>0</v>
       </c>
       <c r="X40" s="16" t="n">
         <v>0</v>
@@ -8199,10 +8199,10 @@
         <v>0</v>
       </c>
       <c r="Z40" s="16" t="n">
-        <v>0</v>
+        <v>53461</v>
       </c>
       <c r="AA40" s="16" t="n">
-        <v>53461</v>
+        <v>0</v>
       </c>
       <c r="AB40" s="16" t="n">
         <v>0</v>
@@ -8210,14 +8210,14 @@
       <c r="AC40" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD40" s="16" t="n">
-        <v>0</v>
+      <c r="AD40" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AF40" s="16" t="s">
-        <v>57</v>
+      <c r="AF40" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AG40" s="16" t="n">
         <v>0</v>
@@ -8246,8 +8246,8 @@
       <c r="AO40" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP40" s="16" t="n">
-        <v>0</v>
+      <c r="AP40" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ40" s="16" t="s">
         <v>57</v>
@@ -8348,8 +8348,8 @@
       <c r="V41" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W41" s="13" t="s">
-        <v>57</v>
+      <c r="W41" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="X41" s="13" t="n">
         <v>0</v>
@@ -8369,8 +8369,8 @@
       <c r="AC41" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD41" s="13" t="n">
-        <v>0</v>
+      <c r="AD41" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE41" s="13" t="s">
         <v>57</v>
@@ -8498,12 +8498,12 @@
       <c r="S42" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="T42" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="U42" s="16" t="n">
+      <c r="T42" s="16" t="n">
         <v>1183</v>
       </c>
+      <c r="U42" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="V42" s="16" t="s">
         <v>57</v>
       </c>
@@ -8564,8 +8564,8 @@
       <c r="AO42" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP42" s="16" t="s">
-        <v>57</v>
+      <c r="AP42" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ42" s="16" t="n">
         <v>0</v>
@@ -8600,8 +8600,8 @@
       <c r="BA42" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BB42" s="16" t="n">
-        <v>0</v>
+      <c r="BB42" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8657,11 +8657,11 @@
       <c r="S43" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T43" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U43" s="13" t="n">
-        <v>0</v>
+      <c r="T43" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V43" s="13" t="s">
         <v>57</v>
@@ -8874,8 +8874,8 @@
       <c r="T45" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U45" s="20" t="s">
-        <v>57</v>
+      <c r="U45" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V45" s="20" t="n">
         <v>0</v>
@@ -8984,154 +8984,154 @@
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
       <c r="E46" s="22" t="n">
-        <v>133044</v>
+        <v>134938</v>
       </c>
       <c r="F46" s="22" t="n">
-        <v>134938</v>
+        <v>124714</v>
       </c>
       <c r="G46" s="22" t="n">
-        <v>124714</v>
+        <v>142997</v>
       </c>
       <c r="H46" s="22" t="n">
-        <v>142997</v>
+        <v>124322</v>
       </c>
       <c r="I46" s="22" t="n">
-        <v>124322</v>
+        <v>127909</v>
       </c>
       <c r="J46" s="22" t="n">
-        <v>127909</v>
+        <v>86970</v>
       </c>
       <c r="K46" s="22" t="n">
-        <v>86970</v>
+        <v>284225</v>
       </c>
       <c r="L46" s="22" t="n">
-        <v>284225</v>
+        <v>144336</v>
       </c>
       <c r="M46" s="22" t="n">
-        <v>144336</v>
+        <v>77541</v>
       </c>
       <c r="N46" s="22" t="n">
-        <v>77541</v>
+        <v>81564</v>
       </c>
       <c r="O46" s="22" t="n">
-        <v>81564</v>
+        <v>69302</v>
       </c>
       <c r="P46" s="22" t="n">
-        <v>69302</v>
+        <v>74855</v>
       </c>
       <c r="Q46" s="22" t="n">
-        <v>74855</v>
+        <v>137763</v>
       </c>
       <c r="R46" s="22" t="n">
-        <v>137763</v>
+        <v>64123</v>
       </c>
       <c r="S46" s="22" t="n">
-        <v>64123</v>
+        <v>93023</v>
       </c>
       <c r="T46" s="22" t="n">
-        <v>93023</v>
+        <v>74152</v>
       </c>
       <c r="U46" s="22" t="n">
-        <v>74152</v>
+        <v>111853</v>
       </c>
       <c r="V46" s="22" t="n">
-        <v>111853</v>
+        <v>130176</v>
       </c>
       <c r="W46" s="22" t="n">
-        <v>130176</v>
+        <v>90865</v>
       </c>
       <c r="X46" s="22" t="n">
-        <v>90865</v>
+        <v>56734</v>
       </c>
       <c r="Y46" s="22" t="n">
-        <v>56734</v>
+        <v>85072</v>
       </c>
       <c r="Z46" s="22" t="n">
-        <v>85072</v>
+        <v>152595</v>
       </c>
       <c r="AA46" s="22" t="n">
-        <v>152595</v>
+        <v>72006</v>
       </c>
       <c r="AB46" s="22" t="n">
-        <v>72006</v>
+        <v>78495</v>
       </c>
       <c r="AC46" s="22" t="n">
-        <v>78495</v>
+        <v>77150</v>
       </c>
       <c r="AD46" s="22" t="n">
-        <v>77150</v>
+        <v>55445</v>
       </c>
       <c r="AE46" s="22" t="n">
-        <v>55445</v>
+        <v>85049</v>
       </c>
       <c r="AF46" s="22" t="n">
-        <v>85049</v>
+        <v>83526</v>
       </c>
       <c r="AG46" s="22" t="n">
-        <v>83526</v>
+        <v>46645</v>
       </c>
       <c r="AH46" s="22" t="n">
-        <v>46645</v>
+        <v>34477</v>
       </c>
       <c r="AI46" s="22" t="n">
-        <v>34477</v>
+        <v>67546</v>
       </c>
       <c r="AJ46" s="22" t="n">
-        <v>67546</v>
+        <v>70347</v>
       </c>
       <c r="AK46" s="22" t="n">
-        <v>70347</v>
+        <v>69063</v>
       </c>
       <c r="AL46" s="22" t="n">
-        <v>69063</v>
+        <v>65315</v>
       </c>
       <c r="AM46" s="22" t="n">
-        <v>65315</v>
+        <v>62581</v>
       </c>
       <c r="AN46" s="22" t="n">
-        <v>62581</v>
+        <v>75835</v>
       </c>
       <c r="AO46" s="22" t="n">
-        <v>75835</v>
+        <v>90243</v>
       </c>
       <c r="AP46" s="22" t="n">
-        <v>90243</v>
+        <v>47197</v>
       </c>
       <c r="AQ46" s="22" t="n">
-        <v>47197</v>
+        <v>57800</v>
       </c>
       <c r="AR46" s="22" t="n">
-        <v>57800</v>
+        <v>46914</v>
       </c>
       <c r="AS46" s="22" t="n">
-        <v>46914</v>
+        <v>61327</v>
       </c>
       <c r="AT46" s="22" t="n">
-        <v>61327</v>
+        <v>51789</v>
       </c>
       <c r="AU46" s="22" t="n">
-        <v>51789</v>
+        <v>69600</v>
       </c>
       <c r="AV46" s="22" t="n">
-        <v>69600</v>
+        <v>74889</v>
       </c>
       <c r="AW46" s="22" t="n">
-        <v>74889</v>
+        <v>81933</v>
       </c>
       <c r="AX46" s="22" t="n">
-        <v>81933</v>
+        <v>84532</v>
       </c>
       <c r="AY46" s="22" t="n">
-        <v>84532</v>
+        <v>72693</v>
       </c>
       <c r="AZ46" s="22" t="n">
-        <v>72693</v>
+        <v>84817</v>
       </c>
       <c r="BA46" s="22" t="n">
-        <v>84817</v>
+        <v>87698</v>
       </c>
       <c r="BB46" s="22" t="n">
-        <v>87698</v>
+        <v>67559</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9615,8 +9615,8 @@
       <c r="Q53" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R53" s="13" t="n">
-        <v>0</v>
+      <c r="R53" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S53" s="13" t="s">
         <v>57</v>
@@ -9783,71 +9783,71 @@
       <c r="T54" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U54" s="16" t="s">
-        <v>57</v>
+      <c r="U54" s="16" t="n">
+        <v>19535</v>
       </c>
       <c r="V54" s="16" t="n">
-        <v>19535</v>
+        <v>18979</v>
       </c>
       <c r="W54" s="16" t="n">
-        <v>18979</v>
+        <v>17145</v>
       </c>
       <c r="X54" s="16" t="n">
-        <v>17145</v>
+        <v>13691</v>
       </c>
       <c r="Y54" s="16" t="n">
-        <v>13691</v>
+        <v>16231</v>
       </c>
       <c r="Z54" s="16" t="n">
-        <v>16231</v>
+        <v>24105</v>
       </c>
       <c r="AA54" s="16" t="n">
-        <v>24105</v>
+        <v>26218</v>
       </c>
       <c r="AB54" s="16" t="n">
-        <v>26218</v>
+        <v>11478</v>
       </c>
       <c r="AC54" s="16" t="n">
-        <v>11478</v>
+        <v>8780</v>
       </c>
       <c r="AD54" s="16" t="n">
-        <v>8780</v>
+        <v>9039</v>
       </c>
       <c r="AE54" s="16" t="n">
-        <v>9039</v>
+        <v>23707</v>
       </c>
       <c r="AF54" s="16" t="n">
-        <v>23707</v>
+        <v>24395</v>
       </c>
       <c r="AG54" s="16" t="n">
-        <v>24395</v>
+        <v>15815</v>
       </c>
       <c r="AH54" s="16" t="n">
-        <v>15815</v>
+        <v>12129</v>
       </c>
       <c r="AI54" s="16" t="n">
-        <v>12129</v>
+        <v>38521</v>
       </c>
       <c r="AJ54" s="16" t="n">
-        <v>38521</v>
+        <v>38498</v>
       </c>
       <c r="AK54" s="16" t="n">
-        <v>38498</v>
+        <v>15806</v>
       </c>
       <c r="AL54" s="16" t="n">
-        <v>15806</v>
+        <v>14499</v>
       </c>
       <c r="AM54" s="16" t="n">
-        <v>14499</v>
+        <v>16353</v>
       </c>
       <c r="AN54" s="16" t="n">
-        <v>16353</v>
+        <v>24464</v>
       </c>
       <c r="AO54" s="16" t="n">
-        <v>24464</v>
-      </c>
-      <c r="AP54" s="16" t="n">
         <v>28957</v>
+      </c>
+      <c r="AP54" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ54" s="16" t="s">
         <v>57</v>
@@ -9918,33 +9918,33 @@
       <c r="L55" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M55" s="13" t="s">
-        <v>57</v>
+      <c r="M55" s="13" t="n">
+        <v>12864</v>
       </c>
       <c r="N55" s="13" t="n">
-        <v>12864</v>
+        <v>15897</v>
       </c>
       <c r="O55" s="13" t="n">
-        <v>15897</v>
+        <v>14420</v>
       </c>
       <c r="P55" s="13" t="n">
-        <v>14420</v>
+        <v>15872</v>
       </c>
       <c r="Q55" s="13" t="n">
-        <v>15872</v>
+        <v>15694</v>
       </c>
       <c r="R55" s="13" t="n">
-        <v>15694</v>
+        <v>6269</v>
       </c>
       <c r="S55" s="13" t="n">
-        <v>6269</v>
+        <v>14294</v>
       </c>
       <c r="T55" s="13" t="n">
-        <v>14294</v>
-      </c>
-      <c r="U55" s="13" t="n">
         <v>16075</v>
       </c>
+      <c r="U55" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V55" s="13" t="s">
         <v>57</v>
       </c>
@@ -10005,44 +10005,44 @@
       <c r="AO55" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP55" s="13" t="s">
-        <v>57</v>
+      <c r="AP55" s="13" t="n">
+        <v>15758</v>
       </c>
       <c r="AQ55" s="13" t="n">
-        <v>15758</v>
+        <v>23164</v>
       </c>
       <c r="AR55" s="13" t="n">
-        <v>23164</v>
+        <v>24707</v>
       </c>
       <c r="AS55" s="13" t="n">
-        <v>24707</v>
+        <v>16672</v>
       </c>
       <c r="AT55" s="13" t="n">
-        <v>16672</v>
+        <v>16817</v>
       </c>
       <c r="AU55" s="13" t="n">
-        <v>16817</v>
+        <v>19763</v>
       </c>
       <c r="AV55" s="13" t="n">
-        <v>19763</v>
+        <v>21653</v>
       </c>
       <c r="AW55" s="13" t="n">
-        <v>21653</v>
+        <v>23087</v>
       </c>
       <c r="AX55" s="13" t="n">
-        <v>23087</v>
+        <v>24548</v>
       </c>
       <c r="AY55" s="13" t="n">
-        <v>24548</v>
+        <v>25525</v>
       </c>
       <c r="AZ55" s="13" t="n">
-        <v>25525</v>
+        <v>23855</v>
       </c>
       <c r="BA55" s="13" t="n">
-        <v>23855</v>
+        <v>22544</v>
       </c>
       <c r="BB55" s="13" t="n">
-        <v>22544</v>
+        <v>9186</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10077,14 +10077,14 @@
       <c r="L56" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="M56" s="16" t="s">
-        <v>57</v>
+      <c r="M56" s="16" t="n">
+        <v>394</v>
       </c>
       <c r="N56" s="16" t="n">
-        <v>394</v>
+        <v>591</v>
       </c>
       <c r="O56" s="16" t="n">
-        <v>591</v>
+        <v>0</v>
       </c>
       <c r="P56" s="16" t="n">
         <v>0</v>
@@ -10092,8 +10092,8 @@
       <c r="Q56" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R56" s="16" t="n">
-        <v>0</v>
+      <c r="R56" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S56" s="16" t="s">
         <v>57</v>
@@ -10101,8 +10101,8 @@
       <c r="T56" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U56" s="16" t="s">
-        <v>57</v>
+      <c r="U56" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V56" s="16" t="n">
         <v>0</v>
@@ -10128,8 +10128,8 @@
       <c r="AC56" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD56" s="16" t="n">
-        <v>0</v>
+      <c r="AD56" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE56" s="16" t="s">
         <v>57</v>
@@ -10251,8 +10251,8 @@
       <c r="Q57" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R57" s="13" t="n">
-        <v>0</v>
+      <c r="R57" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S57" s="13" t="s">
         <v>57</v>
@@ -10395,23 +10395,23 @@
       <c r="L58" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="M58" s="16" t="s">
-        <v>57</v>
+      <c r="M58" s="16" t="n">
+        <v>7023</v>
       </c>
       <c r="N58" s="16" t="n">
-        <v>7023</v>
+        <v>7421</v>
       </c>
       <c r="O58" s="16" t="n">
-        <v>7421</v>
+        <v>13805</v>
       </c>
       <c r="P58" s="16" t="n">
-        <v>13805</v>
+        <v>954</v>
       </c>
       <c r="Q58" s="16" t="n">
-        <v>954</v>
-      </c>
-      <c r="R58" s="16" t="n">
         <v>148</v>
+      </c>
+      <c r="R58" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S58" s="16" t="s">
         <v>57</v>
@@ -10578,71 +10578,71 @@
       <c r="T59" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U59" s="13" t="s">
-        <v>57</v>
+      <c r="U59" s="13" t="n">
+        <v>17923</v>
       </c>
       <c r="V59" s="13" t="n">
-        <v>17923</v>
+        <v>18133</v>
       </c>
       <c r="W59" s="13" t="n">
-        <v>18133</v>
+        <v>18070</v>
       </c>
       <c r="X59" s="13" t="n">
-        <v>18070</v>
+        <v>18479</v>
       </c>
       <c r="Y59" s="13" t="n">
-        <v>18479</v>
+        <v>19530</v>
       </c>
       <c r="Z59" s="13" t="n">
-        <v>19530</v>
+        <v>22184</v>
       </c>
       <c r="AA59" s="13" t="n">
-        <v>22184</v>
+        <v>21233</v>
       </c>
       <c r="AB59" s="13" t="n">
-        <v>21233</v>
+        <v>21551</v>
       </c>
       <c r="AC59" s="13" t="n">
-        <v>21551</v>
+        <v>19497</v>
       </c>
       <c r="AD59" s="13" t="n">
-        <v>19497</v>
+        <v>10531</v>
       </c>
       <c r="AE59" s="13" t="n">
-        <v>10531</v>
+        <v>22103</v>
       </c>
       <c r="AF59" s="13" t="n">
-        <v>22103</v>
+        <v>20339</v>
       </c>
       <c r="AG59" s="13" t="n">
-        <v>20339</v>
+        <v>16570</v>
       </c>
       <c r="AH59" s="13" t="n">
-        <v>16570</v>
+        <v>9717</v>
       </c>
       <c r="AI59" s="13" t="n">
-        <v>9717</v>
+        <v>24461</v>
       </c>
       <c r="AJ59" s="13" t="n">
-        <v>24461</v>
+        <v>22357</v>
       </c>
       <c r="AK59" s="13" t="n">
-        <v>22357</v>
+        <v>19272</v>
       </c>
       <c r="AL59" s="13" t="n">
-        <v>19272</v>
+        <v>17672</v>
       </c>
       <c r="AM59" s="13" t="n">
-        <v>17672</v>
+        <v>20400</v>
       </c>
       <c r="AN59" s="13" t="n">
-        <v>20400</v>
+        <v>24352</v>
       </c>
       <c r="AO59" s="13" t="n">
-        <v>24352</v>
-      </c>
-      <c r="AP59" s="13" t="n">
         <v>25683</v>
+      </c>
+      <c r="AP59" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ59" s="13" t="s">
         <v>57</v>
@@ -10728,18 +10728,18 @@
       <c r="Q60" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R60" s="16" t="s">
-        <v>57</v>
+      <c r="R60" s="16" t="n">
+        <v>40010</v>
       </c>
       <c r="S60" s="16" t="n">
-        <v>40010</v>
+        <v>24783</v>
       </c>
       <c r="T60" s="16" t="n">
-        <v>24783</v>
-      </c>
-      <c r="U60" s="16" t="n">
         <v>38390</v>
       </c>
+      <c r="U60" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="V60" s="16" t="s">
         <v>57</v>
       </c>
@@ -10800,44 +10800,44 @@
       <c r="AO60" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP60" s="16" t="s">
-        <v>57</v>
+      <c r="AP60" s="16" t="n">
+        <v>9332</v>
       </c>
       <c r="AQ60" s="16" t="n">
-        <v>9332</v>
+        <v>9497</v>
       </c>
       <c r="AR60" s="16" t="n">
-        <v>9497</v>
+        <v>18598</v>
       </c>
       <c r="AS60" s="16" t="n">
-        <v>18598</v>
+        <v>10396</v>
       </c>
       <c r="AT60" s="16" t="n">
-        <v>10396</v>
+        <v>12694</v>
       </c>
       <c r="AU60" s="16" t="n">
-        <v>12694</v>
+        <v>19651</v>
       </c>
       <c r="AV60" s="16" t="n">
-        <v>19651</v>
+        <v>21578</v>
       </c>
       <c r="AW60" s="16" t="n">
-        <v>21578</v>
+        <v>23382</v>
       </c>
       <c r="AX60" s="16" t="n">
-        <v>23382</v>
+        <v>23945</v>
       </c>
       <c r="AY60" s="16" t="n">
-        <v>23945</v>
+        <v>19573</v>
       </c>
       <c r="AZ60" s="16" t="n">
-        <v>19573</v>
+        <v>20484</v>
       </c>
       <c r="BA60" s="16" t="n">
-        <v>20484</v>
+        <v>24327</v>
       </c>
       <c r="BB60" s="16" t="n">
-        <v>24327</v>
+        <v>18062</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10887,18 +10887,18 @@
       <c r="Q61" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R61" s="13" t="s">
-        <v>57</v>
+      <c r="R61" s="13" t="n">
+        <v>4913</v>
       </c>
       <c r="S61" s="13" t="n">
-        <v>4913</v>
+        <v>4604</v>
       </c>
       <c r="T61" s="13" t="n">
-        <v>4604</v>
-      </c>
-      <c r="U61" s="13" t="n">
         <v>7127</v>
       </c>
+      <c r="U61" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V61" s="13" t="s">
         <v>57</v>
       </c>
@@ -10959,44 +10959,44 @@
       <c r="AO61" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP61" s="13" t="s">
-        <v>57</v>
+      <c r="AP61" s="13" t="n">
+        <v>1498</v>
       </c>
       <c r="AQ61" s="13" t="n">
-        <v>1498</v>
+        <v>3329</v>
       </c>
       <c r="AR61" s="13" t="n">
-        <v>3329</v>
+        <v>3319</v>
       </c>
       <c r="AS61" s="13" t="n">
-        <v>3319</v>
+        <v>4222</v>
       </c>
       <c r="AT61" s="13" t="n">
-        <v>4222</v>
+        <v>5323</v>
       </c>
       <c r="AU61" s="13" t="n">
-        <v>5323</v>
+        <v>6950</v>
       </c>
       <c r="AV61" s="13" t="n">
-        <v>6950</v>
+        <v>6183</v>
       </c>
       <c r="AW61" s="13" t="n">
-        <v>6183</v>
+        <v>6838</v>
       </c>
       <c r="AX61" s="13" t="n">
-        <v>6838</v>
+        <v>8041</v>
       </c>
       <c r="AY61" s="13" t="n">
-        <v>8041</v>
+        <v>6752</v>
       </c>
       <c r="AZ61" s="13" t="n">
-        <v>6752</v>
+        <v>10658</v>
       </c>
       <c r="BA61" s="13" t="n">
-        <v>10658</v>
+        <v>9264</v>
       </c>
       <c r="BB61" s="13" t="n">
-        <v>9264</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11046,17 +11046,17 @@
       <c r="Q62" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R62" s="16" t="s">
-        <v>57</v>
+      <c r="R62" s="16" t="n">
+        <v>11528</v>
       </c>
       <c r="S62" s="16" t="n">
-        <v>11528</v>
+        <v>8653</v>
       </c>
       <c r="T62" s="16" t="n">
-        <v>8653</v>
-      </c>
-      <c r="U62" s="16" t="n">
         <v>11408</v>
+      </c>
+      <c r="U62" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="V62" s="16" t="s">
         <v>57</v>
@@ -11190,23 +11190,23 @@
       <c r="L63" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M63" s="13" t="s">
-        <v>57</v>
+      <c r="M63" s="13" t="n">
+        <v>38451</v>
       </c>
       <c r="N63" s="13" t="n">
-        <v>38451</v>
+        <v>36713</v>
       </c>
       <c r="O63" s="13" t="n">
-        <v>36713</v>
+        <v>29595</v>
       </c>
       <c r="P63" s="13" t="n">
-        <v>29595</v>
+        <v>39325</v>
       </c>
       <c r="Q63" s="13" t="n">
-        <v>39325</v>
-      </c>
-      <c r="R63" s="13" t="n">
         <v>42632</v>
+      </c>
+      <c r="R63" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S63" s="13" t="s">
         <v>57</v>
@@ -11349,23 +11349,23 @@
       <c r="L64" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="M64" s="16" t="s">
-        <v>57</v>
+      <c r="M64" s="16" t="n">
+        <v>5579</v>
       </c>
       <c r="N64" s="16" t="n">
-        <v>5579</v>
+        <v>5511</v>
       </c>
       <c r="O64" s="16" t="n">
-        <v>5511</v>
+        <v>5300</v>
       </c>
       <c r="P64" s="16" t="n">
-        <v>5300</v>
+        <v>6328</v>
       </c>
       <c r="Q64" s="16" t="n">
-        <v>6328</v>
-      </c>
-      <c r="R64" s="16" t="n">
         <v>7969</v>
+      </c>
+      <c r="R64" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S64" s="16" t="s">
         <v>57</v>
@@ -11508,32 +11508,32 @@
       <c r="L65" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M65" s="13" t="s">
-        <v>57</v>
+      <c r="M65" s="13" t="n">
+        <v>5277</v>
       </c>
       <c r="N65" s="13" t="n">
-        <v>5277</v>
+        <v>938</v>
       </c>
       <c r="O65" s="13" t="n">
-        <v>938</v>
+        <v>0</v>
       </c>
       <c r="P65" s="13" t="n">
         <v>0</v>
       </c>
       <c r="Q65" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R65" s="13" t="n">
         <v>49970</v>
       </c>
+      <c r="R65" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S65" s="13" t="s">
         <v>57</v>
       </c>
       <c r="T65" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U65" s="13" t="s">
-        <v>57</v>
+      <c r="U65" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V65" s="13" t="n">
         <v>0</v>
@@ -11544,8 +11544,8 @@
       <c r="X65" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Y65" s="13" t="n">
-        <v>0</v>
+      <c r="Y65" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="Z65" s="13" t="s">
         <v>57</v>
@@ -11691,41 +11691,41 @@
       <c r="T66" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U66" s="16" t="s">
-        <v>57</v>
+      <c r="U66" s="16" t="n">
+        <v>3893</v>
       </c>
       <c r="V66" s="16" t="n">
-        <v>3893</v>
+        <v>5758</v>
       </c>
       <c r="W66" s="16" t="n">
-        <v>5758</v>
+        <v>3461</v>
       </c>
       <c r="X66" s="16" t="n">
-        <v>3461</v>
+        <v>4543</v>
       </c>
       <c r="Y66" s="16" t="n">
-        <v>4543</v>
+        <v>1071</v>
       </c>
       <c r="Z66" s="16" t="n">
-        <v>1071</v>
+        <v>119</v>
       </c>
       <c r="AA66" s="16" t="n">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="AB66" s="16" t="n">
-        <v>215</v>
+        <v>979</v>
       </c>
       <c r="AC66" s="16" t="n">
-        <v>979</v>
+        <v>492</v>
       </c>
       <c r="AD66" s="16" t="n">
-        <v>492</v>
+        <v>455</v>
       </c>
       <c r="AE66" s="16" t="n">
-        <v>455</v>
+        <v>203</v>
       </c>
       <c r="AF66" s="16" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="AG66" s="16" t="n">
         <v>0</v>
@@ -11754,8 +11754,8 @@
       <c r="AO66" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP66" s="16" t="n">
-        <v>0</v>
+      <c r="AP66" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ66" s="16" t="s">
         <v>57</v>
@@ -11826,32 +11826,32 @@
       <c r="L67" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M67" s="13" t="s">
-        <v>57</v>
+      <c r="M67" s="13" t="n">
+        <v>10382</v>
       </c>
       <c r="N67" s="13" t="n">
-        <v>10382</v>
+        <v>14913</v>
       </c>
       <c r="O67" s="13" t="n">
-        <v>14913</v>
+        <v>9852</v>
       </c>
       <c r="P67" s="13" t="n">
-        <v>9852</v>
+        <v>13675</v>
       </c>
       <c r="Q67" s="13" t="n">
-        <v>13675</v>
-      </c>
-      <c r="R67" s="13" t="n">
         <v>10746</v>
       </c>
-      <c r="S67" s="13" t="s">
-        <v>57</v>
+      <c r="R67" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S67" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="T67" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="U67" s="13" t="n">
-        <v>0</v>
+      <c r="U67" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V67" s="13" t="s">
         <v>57</v>
@@ -11913,44 +11913,44 @@
       <c r="AO67" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP67" s="13" t="s">
-        <v>57</v>
+      <c r="AP67" s="13" t="n">
+        <v>24520</v>
       </c>
       <c r="AQ67" s="13" t="n">
-        <v>24520</v>
+        <v>24162</v>
       </c>
       <c r="AR67" s="13" t="n">
-        <v>24162</v>
+        <v>18481</v>
       </c>
       <c r="AS67" s="13" t="n">
-        <v>18481</v>
+        <v>14799</v>
       </c>
       <c r="AT67" s="13" t="n">
-        <v>14799</v>
+        <v>16849</v>
       </c>
       <c r="AU67" s="13" t="n">
-        <v>16849</v>
+        <v>22314</v>
       </c>
       <c r="AV67" s="13" t="n">
-        <v>22314</v>
+        <v>22496</v>
       </c>
       <c r="AW67" s="13" t="n">
-        <v>22496</v>
+        <v>24932</v>
       </c>
       <c r="AX67" s="13" t="n">
-        <v>24932</v>
+        <v>30240</v>
       </c>
       <c r="AY67" s="13" t="n">
-        <v>30240</v>
+        <v>27377</v>
       </c>
       <c r="AZ67" s="13" t="n">
-        <v>27377</v>
+        <v>25396</v>
       </c>
       <c r="BA67" s="13" t="n">
-        <v>25396</v>
+        <v>25619</v>
       </c>
       <c r="BB67" s="13" t="n">
-        <v>25619</v>
+        <v>20404</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12009,38 +12009,38 @@
       <c r="T68" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U68" s="16" t="s">
-        <v>57</v>
+      <c r="U68" s="16" t="n">
+        <v>77</v>
       </c>
       <c r="V68" s="16" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="W68" s="16" t="n">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="X68" s="16" t="n">
-        <v>580</v>
+        <v>1709</v>
       </c>
       <c r="Y68" s="16" t="n">
-        <v>1709</v>
+        <v>193</v>
       </c>
       <c r="Z68" s="16" t="n">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="AA68" s="16" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AB68" s="16" t="n">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="AC68" s="16" t="n">
-        <v>162</v>
+        <v>1231</v>
       </c>
       <c r="AD68" s="16" t="n">
-        <v>1231</v>
+        <v>22</v>
       </c>
       <c r="AE68" s="16" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AF68" s="16" t="n">
         <v>0</v>
@@ -12072,8 +12072,8 @@
       <c r="AO68" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP68" s="16" t="n">
-        <v>0</v>
+      <c r="AP68" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ68" s="16" t="s">
         <v>57</v>
@@ -12121,31 +12121,31 @@
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="13" t="n">
-        <v>71954</v>
+        <v>83969</v>
       </c>
       <c r="F69" s="13" t="n">
-        <v>83969</v>
+        <v>54725</v>
       </c>
       <c r="G69" s="13" t="n">
-        <v>54725</v>
+        <v>66907</v>
       </c>
       <c r="H69" s="13" t="n">
-        <v>66907</v>
+        <v>48916</v>
       </c>
       <c r="I69" s="13" t="n">
-        <v>48916</v>
+        <v>58424</v>
       </c>
       <c r="J69" s="13" t="n">
-        <v>58424</v>
+        <v>54809</v>
       </c>
       <c r="K69" s="13" t="n">
-        <v>54809</v>
+        <v>70645</v>
       </c>
       <c r="L69" s="13" t="n">
-        <v>70645</v>
+        <v>70234</v>
       </c>
       <c r="M69" s="13" t="n">
-        <v>70234</v>
+        <v>0</v>
       </c>
       <c r="N69" s="13" t="n">
         <v>0</v>
@@ -12159,8 +12159,8 @@
       <c r="Q69" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R69" s="13" t="n">
-        <v>0</v>
+      <c r="R69" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S69" s="13" t="s">
         <v>57</v>
@@ -12318,18 +12318,18 @@
       <c r="Q70" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R70" s="16" t="s">
-        <v>57</v>
+      <c r="R70" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="S70" s="16" t="n">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="T70" s="16" t="n">
-        <v>194</v>
-      </c>
-      <c r="U70" s="16" t="n">
         <v>172</v>
       </c>
+      <c r="U70" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="V70" s="16" t="s">
         <v>57</v>
       </c>
@@ -12390,44 +12390,44 @@
       <c r="AO70" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP70" s="16" t="s">
-        <v>57</v>
+      <c r="AP70" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ70" s="16" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AR70" s="16" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="AS70" s="16" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AT70" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AU70" s="16" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AV70" s="16" t="n">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="AW70" s="16" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="AX70" s="16" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AY70" s="16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ70" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA70" s="16" t="n">
+        <v>26</v>
+      </c>
+      <c r="BB70" s="16" t="n">
         <v>24</v>
-      </c>
-      <c r="AZ70" s="16" t="n">
-        <v>25</v>
-      </c>
-      <c r="BA70" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB70" s="16" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12462,11 +12462,11 @@
       <c r="L71" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="N71" s="13" t="n">
-        <v>0</v>
+      <c r="M71" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="O71" s="13" t="s">
         <v>57</v>
@@ -12621,74 +12621,74 @@
       <c r="L72" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="M72" s="16" t="s">
-        <v>57</v>
+      <c r="M72" s="16" t="n">
+        <v>72</v>
       </c>
       <c r="N72" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="16" t="n">
+        <v>25</v>
+      </c>
+      <c r="P72" s="16" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q72" s="16" t="n">
+        <v>96</v>
+      </c>
+      <c r="R72" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="S72" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="T72" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="U72" s="16" t="n">
+        <v>123</v>
+      </c>
+      <c r="V72" s="16" t="n">
+        <v>149</v>
+      </c>
+      <c r="W72" s="16" t="n">
+        <v>123</v>
+      </c>
+      <c r="X72" s="16" t="n">
+        <v>201</v>
+      </c>
+      <c r="Y72" s="16" t="n">
         <v>72</v>
       </c>
-      <c r="O72" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P72" s="16" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q72" s="16" t="n">
-        <v>70</v>
-      </c>
-      <c r="R72" s="16" t="n">
-        <v>96</v>
-      </c>
-      <c r="S72" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="T72" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="U72" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="V72" s="16" t="n">
+      <c r="Z72" s="16" t="n">
         <v>123</v>
       </c>
-      <c r="W72" s="16" t="n">
-        <v>149</v>
-      </c>
-      <c r="X72" s="16" t="n">
-        <v>123</v>
-      </c>
-      <c r="Y72" s="16" t="n">
-        <v>201</v>
-      </c>
-      <c r="Z72" s="16" t="n">
-        <v>72</v>
-      </c>
       <c r="AA72" s="16" t="n">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="AB72" s="16" t="n">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="AC72" s="16" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AD72" s="16" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AE72" s="16" t="n">
         <v>26</v>
       </c>
       <c r="AF72" s="16" t="n">
+        <v>97</v>
+      </c>
+      <c r="AG72" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH72" s="16" t="n">
         <v>26</v>
       </c>
-      <c r="AG72" s="16" t="n">
-        <v>97</v>
-      </c>
-      <c r="AH72" s="16" t="n">
-        <v>0</v>
-      </c>
       <c r="AI72" s="16" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AJ72" s="16" t="n">
         <v>0</v>
@@ -12697,19 +12697,19 @@
         <v>0</v>
       </c>
       <c r="AL72" s="16" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AM72" s="16" t="n">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="AN72" s="16" t="n">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="AO72" s="16" t="n">
-        <v>49</v>
-      </c>
-      <c r="AP72" s="16" t="n">
         <v>15</v>
+      </c>
+      <c r="AP72" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ72" s="16" t="s">
         <v>57</v>
@@ -12783,8 +12783,8 @@
       <c r="M73" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="N73" s="13" t="s">
-        <v>57</v>
+      <c r="N73" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="O73" s="13" t="n">
         <v>0</v>
@@ -12795,8 +12795,8 @@
       <c r="Q73" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R73" s="13" t="n">
-        <v>0</v>
+      <c r="R73" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S73" s="13" t="s">
         <v>57</v>
@@ -12804,8 +12804,8 @@
       <c r="T73" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U73" s="13" t="s">
-        <v>57</v>
+      <c r="U73" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V73" s="13" t="n">
         <v>0</v>
@@ -12831,8 +12831,8 @@
       <c r="AC73" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD73" s="13" t="n">
-        <v>0</v>
+      <c r="AD73" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE73" s="13" t="s">
         <v>57</v>
@@ -12963,71 +12963,71 @@
       <c r="T74" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U74" s="16" t="s">
-        <v>57</v>
+      <c r="U74" s="16" t="n">
+        <v>7543</v>
       </c>
       <c r="V74" s="16" t="n">
-        <v>7543</v>
+        <v>4269</v>
       </c>
       <c r="W74" s="16" t="n">
-        <v>4269</v>
+        <v>5990</v>
       </c>
       <c r="X74" s="16" t="n">
-        <v>5990</v>
+        <v>6724</v>
       </c>
       <c r="Y74" s="16" t="n">
-        <v>6724</v>
+        <v>8213</v>
       </c>
       <c r="Z74" s="16" t="n">
-        <v>8213</v>
+        <v>8370</v>
       </c>
       <c r="AA74" s="16" t="n">
-        <v>8370</v>
+        <v>6817</v>
       </c>
       <c r="AB74" s="16" t="n">
-        <v>6817</v>
+        <v>8584</v>
       </c>
       <c r="AC74" s="16" t="n">
-        <v>8584</v>
+        <v>9415</v>
       </c>
       <c r="AD74" s="16" t="n">
-        <v>9415</v>
+        <v>6261</v>
       </c>
       <c r="AE74" s="16" t="n">
-        <v>6261</v>
+        <v>7077</v>
       </c>
       <c r="AF74" s="16" t="n">
-        <v>7077</v>
+        <v>8483</v>
       </c>
       <c r="AG74" s="16" t="n">
-        <v>8483</v>
+        <v>5481</v>
       </c>
       <c r="AH74" s="16" t="n">
-        <v>5481</v>
+        <v>3523</v>
       </c>
       <c r="AI74" s="16" t="n">
-        <v>3523</v>
+        <v>1518</v>
       </c>
       <c r="AJ74" s="16" t="n">
-        <v>1518</v>
+        <v>3580</v>
       </c>
       <c r="AK74" s="16" t="n">
-        <v>3580</v>
+        <v>9750</v>
       </c>
       <c r="AL74" s="16" t="n">
-        <v>9750</v>
+        <v>7779</v>
       </c>
       <c r="AM74" s="16" t="n">
-        <v>7779</v>
+        <v>7653</v>
       </c>
       <c r="AN74" s="16" t="n">
-        <v>7653</v>
+        <v>6443</v>
       </c>
       <c r="AO74" s="16" t="n">
-        <v>6443</v>
-      </c>
-      <c r="AP74" s="16" t="n">
         <v>8403</v>
+      </c>
+      <c r="AP74" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ74" s="16" t="s">
         <v>57</v>
@@ -13122,71 +13122,71 @@
       <c r="T75" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U75" s="13" t="s">
-        <v>57</v>
+      <c r="U75" s="13" t="n">
+        <v>53753</v>
       </c>
       <c r="V75" s="13" t="n">
-        <v>53753</v>
+        <v>37771</v>
       </c>
       <c r="W75" s="13" t="n">
-        <v>37771</v>
+        <v>35177</v>
       </c>
       <c r="X75" s="13" t="n">
-        <v>35177</v>
+        <v>28467</v>
       </c>
       <c r="Y75" s="13" t="n">
-        <v>28467</v>
+        <v>34535</v>
       </c>
       <c r="Z75" s="13" t="n">
-        <v>34535</v>
+        <v>39016</v>
       </c>
       <c r="AA75" s="13" t="n">
-        <v>39016</v>
+        <v>21668</v>
       </c>
       <c r="AB75" s="13" t="n">
-        <v>21668</v>
+        <v>37310</v>
       </c>
       <c r="AC75" s="13" t="n">
-        <v>37310</v>
+        <v>44600</v>
       </c>
       <c r="AD75" s="13" t="n">
-        <v>44600</v>
+        <v>29585</v>
       </c>
       <c r="AE75" s="13" t="n">
-        <v>29585</v>
+        <v>26848</v>
       </c>
       <c r="AF75" s="13" t="n">
-        <v>26848</v>
+        <v>21528</v>
       </c>
       <c r="AG75" s="13" t="n">
-        <v>21528</v>
+        <v>14890</v>
       </c>
       <c r="AH75" s="13" t="n">
-        <v>14890</v>
+        <v>7978</v>
       </c>
       <c r="AI75" s="13" t="n">
-        <v>7978</v>
+        <v>2499</v>
       </c>
       <c r="AJ75" s="13" t="n">
-        <v>2499</v>
+        <v>7025</v>
       </c>
       <c r="AK75" s="13" t="n">
-        <v>7025</v>
+        <v>23996</v>
       </c>
       <c r="AL75" s="13" t="n">
-        <v>23996</v>
+        <v>25875</v>
       </c>
       <c r="AM75" s="13" t="n">
-        <v>25875</v>
+        <v>21044</v>
       </c>
       <c r="AN75" s="13" t="n">
-        <v>21044</v>
+        <v>19207</v>
       </c>
       <c r="AO75" s="13" t="n">
-        <v>19207</v>
-      </c>
-      <c r="AP75" s="13" t="n">
         <v>22237</v>
+      </c>
+      <c r="AP75" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ75" s="13" t="s">
         <v>57</v>
@@ -13272,17 +13272,17 @@
       <c r="Q76" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R76" s="16" t="s">
-        <v>57</v>
+      <c r="R76" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="S76" s="16" t="n">
-        <v>0</v>
+        <v>43250</v>
       </c>
       <c r="T76" s="16" t="n">
-        <v>43250</v>
-      </c>
-      <c r="U76" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="U76" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="V76" s="16" t="s">
         <v>57</v>
@@ -13437,14 +13437,14 @@
       <c r="S77" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T77" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U77" s="13" t="n">
+      <c r="T77" s="13" t="n">
         <v>25</v>
       </c>
-      <c r="V77" s="13" t="s">
-        <v>57</v>
+      <c r="U77" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V77" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="W77" s="13" t="n">
         <v>0</v>
@@ -13453,13 +13453,13 @@
         <v>0</v>
       </c>
       <c r="Y77" s="13" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z77" s="13" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AA77" s="13" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AB77" s="13" t="n">
         <v>0</v>
@@ -13467,65 +13467,65 @@
       <c r="AC77" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD77" s="13" t="n">
-        <v>0</v>
+      <c r="AD77" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE77" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF77" s="13" t="s">
-        <v>57</v>
+      <c r="AF77" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AG77" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AH77" s="13" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AI77" s="13" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AJ77" s="13" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AK77" s="13" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL77" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="AL77" s="13" t="n">
-        <v>46</v>
-      </c>
       <c r="AM77" s="13" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AN77" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO77" s="13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AP77" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ77" s="13" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="AP77" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ77" s="13" t="n">
+        <v>62</v>
       </c>
       <c r="AR77" s="13" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="AS77" s="13" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="AT77" s="13" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AU77" s="13" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AV77" s="13" t="n">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="AW77" s="13" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="AX77" s="13" t="n">
         <v>0</v>
@@ -13539,8 +13539,8 @@
       <c r="BA77" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB77" s="13" t="n">
-        <v>0</v>
+      <c r="BB77" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13611,8 +13611,8 @@
       <c r="X78" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="Y78" s="16" t="s">
-        <v>57</v>
+      <c r="Y78" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="Z78" s="16" t="n">
         <v>0</v>
@@ -13626,8 +13626,8 @@
       <c r="AC78" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD78" s="16" t="n">
-        <v>0</v>
+      <c r="AD78" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE78" s="16" t="s">
         <v>57</v>
@@ -13758,11 +13758,11 @@
       <c r="T79" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U79" s="13" t="s">
-        <v>57</v>
+      <c r="U79" s="13" t="n">
+        <v>15</v>
       </c>
       <c r="V79" s="13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W79" s="13" t="n">
         <v>0</v>
@@ -13770,8 +13770,8 @@
       <c r="X79" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Y79" s="13" t="n">
-        <v>0</v>
+      <c r="Y79" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="Z79" s="13" t="s">
         <v>57</v>
@@ -13923,11 +13923,11 @@
       <c r="V80" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="W80" s="16" t="s">
-        <v>57</v>
+      <c r="W80" s="16" t="n">
+        <v>3</v>
       </c>
       <c r="X80" s="16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y80" s="16" t="n">
         <v>0</v>
@@ -13944,8 +13944,8 @@
       <c r="AC80" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD80" s="16" t="n">
-        <v>0</v>
+      <c r="AD80" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE80" s="16" t="s">
         <v>57</v>
@@ -13962,8 +13962,8 @@
       <c r="AI80" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AJ80" s="16" t="s">
-        <v>57</v>
+      <c r="AJ80" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AK80" s="16" t="n">
         <v>0</v>
@@ -13980,8 +13980,8 @@
       <c r="AO80" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP80" s="16" t="n">
-        <v>0</v>
+      <c r="AP80" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ80" s="16" t="s">
         <v>57</v>
@@ -14076,14 +14076,14 @@
       <c r="T81" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U81" s="13" t="s">
-        <v>57</v>
+      <c r="U81" s="13" t="n">
+        <v>8992</v>
       </c>
       <c r="V81" s="13" t="n">
-        <v>8992</v>
+        <v>2461</v>
       </c>
       <c r="W81" s="13" t="n">
-        <v>2461</v>
+        <v>0</v>
       </c>
       <c r="X81" s="13" t="n">
         <v>0</v>
@@ -14101,13 +14101,13 @@
         <v>0</v>
       </c>
       <c r="AC81" s="13" t="n">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="AD81" s="13" t="n">
-        <v>235</v>
+        <v>1744</v>
       </c>
       <c r="AE81" s="13" t="n">
-        <v>1744</v>
+        <v>0</v>
       </c>
       <c r="AF81" s="13" t="n">
         <v>0</v>
@@ -14139,8 +14139,8 @@
       <c r="AO81" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP81" s="13" t="n">
-        <v>0</v>
+      <c r="AP81" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ81" s="13" t="s">
         <v>57</v>
@@ -14235,14 +14235,14 @@
       <c r="T82" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U82" s="16" t="s">
-        <v>57</v>
+      <c r="U82" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V82" s="16" t="n">
-        <v>0</v>
+        <v>43250</v>
       </c>
       <c r="W82" s="16" t="n">
-        <v>43250</v>
+        <v>0</v>
       </c>
       <c r="X82" s="16" t="n">
         <v>0</v>
@@ -14251,10 +14251,10 @@
         <v>0</v>
       </c>
       <c r="Z82" s="16" t="n">
-        <v>0</v>
+        <v>53461</v>
       </c>
       <c r="AA82" s="16" t="n">
-        <v>53461</v>
+        <v>0</v>
       </c>
       <c r="AB82" s="16" t="n">
         <v>0</v>
@@ -14262,14 +14262,14 @@
       <c r="AC82" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD82" s="16" t="n">
-        <v>0</v>
+      <c r="AD82" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE82" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AF82" s="16" t="s">
-        <v>57</v>
+      <c r="AF82" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AG82" s="16" t="n">
         <v>0</v>
@@ -14298,8 +14298,8 @@
       <c r="AO82" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP82" s="16" t="n">
-        <v>0</v>
+      <c r="AP82" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ82" s="16" t="s">
         <v>57</v>
@@ -14400,8 +14400,8 @@
       <c r="V83" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W83" s="13" t="s">
-        <v>57</v>
+      <c r="W83" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="X83" s="13" t="n">
         <v>0</v>
@@ -14421,8 +14421,8 @@
       <c r="AC83" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD83" s="13" t="n">
-        <v>0</v>
+      <c r="AD83" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE83" s="13" t="s">
         <v>57</v>
@@ -14550,12 +14550,12 @@
       <c r="S84" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="T84" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="U84" s="16" t="n">
+      <c r="T84" s="16" t="n">
         <v>1183</v>
       </c>
+      <c r="U84" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="V84" s="16" t="s">
         <v>57</v>
       </c>
@@ -14616,8 +14616,8 @@
       <c r="AO84" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP84" s="16" t="s">
-        <v>57</v>
+      <c r="AP84" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ84" s="16" t="n">
         <v>0</v>
@@ -14652,8 +14652,8 @@
       <c r="BA84" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BB84" s="16" t="n">
-        <v>0</v>
+      <c r="BB84" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14709,11 +14709,11 @@
       <c r="S85" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T85" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U85" s="13" t="n">
-        <v>0</v>
+      <c r="T85" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U85" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V85" s="13" t="s">
         <v>57</v>
@@ -14926,8 +14926,8 @@
       <c r="T87" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U87" s="20" t="s">
-        <v>57</v>
+      <c r="U87" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V87" s="20" t="n">
         <v>0</v>
@@ -15140,8 +15140,8 @@
       <c r="T89" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U89" s="20" t="s">
-        <v>57</v>
+      <c r="U89" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V89" s="20" t="n">
         <v>0</v>
@@ -15250,154 +15250,154 @@
       <c r="C90" s="22"/>
       <c r="D90" s="22"/>
       <c r="E90" s="22" t="n">
-        <v>71954</v>
+        <v>83969</v>
       </c>
       <c r="F90" s="22" t="n">
-        <v>83969</v>
+        <v>54725</v>
       </c>
       <c r="G90" s="22" t="n">
-        <v>54725</v>
+        <v>66907</v>
       </c>
       <c r="H90" s="22" t="n">
-        <v>66907</v>
+        <v>48916</v>
       </c>
       <c r="I90" s="22" t="n">
-        <v>48916</v>
+        <v>58424</v>
       </c>
       <c r="J90" s="22" t="n">
-        <v>58424</v>
+        <v>54809</v>
       </c>
       <c r="K90" s="22" t="n">
-        <v>54809</v>
+        <v>70645</v>
       </c>
       <c r="L90" s="22" t="n">
-        <v>70645</v>
+        <v>70234</v>
       </c>
       <c r="M90" s="22" t="n">
-        <v>70234</v>
+        <v>80042</v>
       </c>
       <c r="N90" s="22" t="n">
-        <v>80042</v>
+        <v>81984</v>
       </c>
       <c r="O90" s="22" t="n">
-        <v>81984</v>
+        <v>72997</v>
       </c>
       <c r="P90" s="22" t="n">
-        <v>72997</v>
+        <v>76224</v>
       </c>
       <c r="Q90" s="22" t="n">
-        <v>76224</v>
+        <v>127255</v>
       </c>
       <c r="R90" s="22" t="n">
-        <v>127255</v>
+        <v>62720</v>
       </c>
       <c r="S90" s="22" t="n">
-        <v>62720</v>
+        <v>95778</v>
       </c>
       <c r="T90" s="22" t="n">
-        <v>95778</v>
+        <v>74380</v>
       </c>
       <c r="U90" s="22" t="n">
-        <v>74380</v>
+        <v>111854</v>
       </c>
       <c r="V90" s="22" t="n">
-        <v>111854</v>
+        <v>130770</v>
       </c>
       <c r="W90" s="22" t="n">
-        <v>130770</v>
+        <v>80549</v>
       </c>
       <c r="X90" s="22" t="n">
-        <v>80549</v>
+        <v>73814</v>
       </c>
       <c r="Y90" s="22" t="n">
-        <v>73814</v>
+        <v>79865</v>
       </c>
       <c r="Z90" s="22" t="n">
-        <v>79865</v>
+        <v>147401</v>
       </c>
       <c r="AA90" s="22" t="n">
-        <v>147401</v>
+        <v>76275</v>
       </c>
       <c r="AB90" s="22" t="n">
-        <v>76275</v>
+        <v>80091</v>
       </c>
       <c r="AC90" s="22" t="n">
-        <v>80091</v>
+        <v>84250</v>
       </c>
       <c r="AD90" s="22" t="n">
-        <v>84250</v>
+        <v>57663</v>
       </c>
       <c r="AE90" s="22" t="n">
-        <v>57663</v>
+        <v>79964</v>
       </c>
       <c r="AF90" s="22" t="n">
-        <v>79964</v>
+        <v>74842</v>
       </c>
       <c r="AG90" s="22" t="n">
-        <v>74842</v>
+        <v>52756</v>
       </c>
       <c r="AH90" s="22" t="n">
-        <v>52756</v>
+        <v>33422</v>
       </c>
       <c r="AI90" s="22" t="n">
-        <v>33422</v>
+        <v>67052</v>
       </c>
       <c r="AJ90" s="22" t="n">
-        <v>67052</v>
+        <v>71510</v>
       </c>
       <c r="AK90" s="22" t="n">
-        <v>71510</v>
+        <v>68870</v>
       </c>
       <c r="AL90" s="22" t="n">
-        <v>68870</v>
+        <v>65899</v>
       </c>
       <c r="AM90" s="22" t="n">
-        <v>65899</v>
+        <v>65574</v>
       </c>
       <c r="AN90" s="22" t="n">
-        <v>65574</v>
+        <v>74539</v>
       </c>
       <c r="AO90" s="22" t="n">
-        <v>74539</v>
+        <v>85295</v>
       </c>
       <c r="AP90" s="22" t="n">
-        <v>85295</v>
+        <v>51108</v>
       </c>
       <c r="AQ90" s="22" t="n">
-        <v>51108</v>
+        <v>60264</v>
       </c>
       <c r="AR90" s="22" t="n">
-        <v>60264</v>
+        <v>65170</v>
       </c>
       <c r="AS90" s="22" t="n">
-        <v>65170</v>
+        <v>46115</v>
       </c>
       <c r="AT90" s="22" t="n">
-        <v>46115</v>
+        <v>51683</v>
       </c>
       <c r="AU90" s="22" t="n">
-        <v>51683</v>
+        <v>68752</v>
       </c>
       <c r="AV90" s="22" t="n">
-        <v>68752</v>
+        <v>72054</v>
       </c>
       <c r="AW90" s="22" t="n">
-        <v>72054</v>
+        <v>78239</v>
       </c>
       <c r="AX90" s="22" t="n">
-        <v>78239</v>
+        <v>86798</v>
       </c>
       <c r="AY90" s="22" t="n">
-        <v>86798</v>
+        <v>79252</v>
       </c>
       <c r="AZ90" s="22" t="n">
-        <v>79252</v>
+        <v>80393</v>
       </c>
       <c r="BA90" s="22" t="n">
-        <v>80393</v>
+        <v>81780</v>
       </c>
       <c r="BB90" s="22" t="n">
-        <v>81780</v>
+        <v>52753</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15881,8 +15881,8 @@
       <c r="Q97" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R97" s="13" t="n">
-        <v>0</v>
+      <c r="R97" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S97" s="13" t="s">
         <v>57</v>
@@ -16049,71 +16049,71 @@
       <c r="T98" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U98" s="16" t="s">
-        <v>57</v>
+      <c r="U98" s="16" t="n">
+        <v>44262</v>
       </c>
       <c r="V98" s="16" t="n">
-        <v>44262</v>
+        <v>48303</v>
       </c>
       <c r="W98" s="16" t="n">
-        <v>48303</v>
+        <v>46208</v>
       </c>
       <c r="X98" s="16" t="n">
-        <v>46208</v>
+        <v>37502</v>
       </c>
       <c r="Y98" s="16" t="n">
-        <v>37502</v>
+        <v>47802</v>
       </c>
       <c r="Z98" s="16" t="n">
-        <v>47802</v>
+        <v>73043</v>
       </c>
       <c r="AA98" s="16" t="n">
-        <v>73043</v>
+        <v>80037</v>
       </c>
       <c r="AB98" s="16" t="n">
-        <v>80037</v>
+        <v>35347</v>
       </c>
       <c r="AC98" s="16" t="n">
-        <v>35347</v>
+        <v>27115</v>
       </c>
       <c r="AD98" s="16" t="n">
-        <v>27115</v>
+        <v>30393</v>
       </c>
       <c r="AE98" s="16" t="n">
-        <v>30393</v>
+        <v>101025</v>
       </c>
       <c r="AF98" s="16" t="n">
-        <v>101025</v>
+        <v>113145</v>
       </c>
       <c r="AG98" s="16" t="n">
-        <v>113145</v>
+        <v>80017</v>
       </c>
       <c r="AH98" s="16" t="n">
-        <v>80017</v>
+        <v>73706</v>
       </c>
       <c r="AI98" s="16" t="n">
-        <v>73706</v>
+        <v>275671</v>
       </c>
       <c r="AJ98" s="16" t="n">
-        <v>275671</v>
+        <v>212098</v>
       </c>
       <c r="AK98" s="16" t="n">
-        <v>212098</v>
+        <v>97158</v>
       </c>
       <c r="AL98" s="16" t="n">
-        <v>97158</v>
+        <v>86221</v>
       </c>
       <c r="AM98" s="16" t="n">
-        <v>86221</v>
+        <v>95182</v>
       </c>
       <c r="AN98" s="16" t="n">
-        <v>95182</v>
+        <v>148899</v>
       </c>
       <c r="AO98" s="16" t="n">
-        <v>148899</v>
-      </c>
-      <c r="AP98" s="16" t="n">
         <v>198727</v>
+      </c>
+      <c r="AP98" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ98" s="16" t="s">
         <v>57</v>
@@ -16184,33 +16184,33 @@
       <c r="L99" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M99" s="13" t="s">
-        <v>57</v>
+      <c r="M99" s="13" t="n">
+        <v>19673</v>
       </c>
       <c r="N99" s="13" t="n">
-        <v>19673</v>
+        <v>25936</v>
       </c>
       <c r="O99" s="13" t="n">
-        <v>25936</v>
+        <v>24271</v>
       </c>
       <c r="P99" s="13" t="n">
-        <v>24271</v>
+        <v>26794</v>
       </c>
       <c r="Q99" s="13" t="n">
-        <v>26794</v>
+        <v>26620</v>
       </c>
       <c r="R99" s="13" t="n">
-        <v>26620</v>
+        <v>10619</v>
       </c>
       <c r="S99" s="13" t="n">
-        <v>10619</v>
+        <v>23990</v>
       </c>
       <c r="T99" s="13" t="n">
-        <v>23990</v>
-      </c>
-      <c r="U99" s="13" t="n">
         <v>26905</v>
       </c>
+      <c r="U99" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V99" s="13" t="s">
         <v>57</v>
       </c>
@@ -16271,44 +16271,44 @@
       <c r="AO99" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP99" s="13" t="s">
-        <v>57</v>
+      <c r="AP99" s="13" t="n">
+        <v>90764</v>
       </c>
       <c r="AQ99" s="13" t="n">
-        <v>90764</v>
+        <v>122904</v>
       </c>
       <c r="AR99" s="13" t="n">
-        <v>122904</v>
+        <v>153748</v>
       </c>
       <c r="AS99" s="13" t="n">
-        <v>153748</v>
+        <v>131657</v>
       </c>
       <c r="AT99" s="13" t="n">
-        <v>131657</v>
+        <v>156209</v>
       </c>
       <c r="AU99" s="13" t="n">
-        <v>156209</v>
+        <v>169504</v>
       </c>
       <c r="AV99" s="13" t="n">
-        <v>169504</v>
+        <v>161088</v>
       </c>
       <c r="AW99" s="13" t="n">
-        <v>161088</v>
+        <v>163879</v>
       </c>
       <c r="AX99" s="13" t="n">
-        <v>163879</v>
+        <v>184494</v>
       </c>
       <c r="AY99" s="13" t="n">
-        <v>184494</v>
+        <v>182126</v>
       </c>
       <c r="AZ99" s="13" t="n">
-        <v>182126</v>
+        <v>193579</v>
       </c>
       <c r="BA99" s="13" t="n">
-        <v>193579</v>
+        <v>236127</v>
       </c>
       <c r="BB99" s="13" t="n">
-        <v>236127</v>
+        <v>71996</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16343,14 +16343,14 @@
       <c r="L100" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="M100" s="16" t="s">
-        <v>57</v>
+      <c r="M100" s="16" t="n">
+        <v>645</v>
       </c>
       <c r="N100" s="16" t="n">
-        <v>645</v>
+        <v>1051</v>
       </c>
       <c r="O100" s="16" t="n">
-        <v>1051</v>
+        <v>0</v>
       </c>
       <c r="P100" s="16" t="n">
         <v>0</v>
@@ -16358,8 +16358,8 @@
       <c r="Q100" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R100" s="16" t="n">
-        <v>0</v>
+      <c r="R100" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S100" s="16" t="s">
         <v>57</v>
@@ -16367,8 +16367,8 @@
       <c r="T100" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U100" s="16" t="s">
-        <v>57</v>
+      <c r="U100" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V100" s="16" t="n">
         <v>0</v>
@@ -16394,8 +16394,8 @@
       <c r="AC100" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD100" s="16" t="n">
-        <v>0</v>
+      <c r="AD100" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE100" s="16" t="s">
         <v>57</v>
@@ -16517,8 +16517,8 @@
       <c r="Q101" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R101" s="13" t="n">
-        <v>0</v>
+      <c r="R101" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S101" s="13" t="s">
         <v>57</v>
@@ -16661,23 +16661,23 @@
       <c r="L102" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="M102" s="16" t="s">
-        <v>57</v>
+      <c r="M102" s="16" t="n">
+        <v>11972</v>
       </c>
       <c r="N102" s="16" t="n">
-        <v>11972</v>
+        <v>14169</v>
       </c>
       <c r="O102" s="16" t="n">
-        <v>14169</v>
+        <v>28107</v>
       </c>
       <c r="P102" s="16" t="n">
-        <v>28107</v>
+        <v>1996</v>
       </c>
       <c r="Q102" s="16" t="n">
-        <v>1996</v>
-      </c>
-      <c r="R102" s="16" t="n">
         <v>472</v>
+      </c>
+      <c r="R102" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S102" s="16" t="s">
         <v>57</v>
@@ -16844,71 +16844,71 @@
       <c r="T103" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U103" s="13" t="s">
-        <v>57</v>
+      <c r="U103" s="13" t="n">
+        <v>32797</v>
       </c>
       <c r="V103" s="13" t="n">
-        <v>32797</v>
+        <v>38815</v>
       </c>
       <c r="W103" s="13" t="n">
-        <v>38815</v>
+        <v>38830</v>
       </c>
       <c r="X103" s="13" t="n">
-        <v>38830</v>
+        <v>40124</v>
       </c>
       <c r="Y103" s="13" t="n">
-        <v>40124</v>
+        <v>42418</v>
       </c>
       <c r="Z103" s="13" t="n">
-        <v>42418</v>
+        <v>48233</v>
       </c>
       <c r="AA103" s="13" t="n">
-        <v>48233</v>
+        <v>46155</v>
       </c>
       <c r="AB103" s="13" t="n">
-        <v>46155</v>
+        <v>46930</v>
       </c>
       <c r="AC103" s="13" t="n">
-        <v>46930</v>
+        <v>42688</v>
       </c>
       <c r="AD103" s="13" t="n">
-        <v>42688</v>
+        <v>25600</v>
       </c>
       <c r="AE103" s="13" t="n">
-        <v>25600</v>
+        <v>67943</v>
       </c>
       <c r="AF103" s="13" t="n">
-        <v>67943</v>
+        <v>64474</v>
       </c>
       <c r="AG103" s="13" t="n">
-        <v>64474</v>
+        <v>59625</v>
       </c>
       <c r="AH103" s="13" t="n">
-        <v>59625</v>
+        <v>41601</v>
       </c>
       <c r="AI103" s="13" t="n">
-        <v>41601</v>
+        <v>152963</v>
       </c>
       <c r="AJ103" s="13" t="n">
-        <v>152963</v>
+        <v>95400</v>
       </c>
       <c r="AK103" s="13" t="n">
-        <v>95400</v>
+        <v>88759</v>
       </c>
       <c r="AL103" s="13" t="n">
-        <v>88759</v>
+        <v>106136</v>
       </c>
       <c r="AM103" s="13" t="n">
-        <v>106136</v>
+        <v>113337</v>
       </c>
       <c r="AN103" s="13" t="n">
-        <v>113337</v>
+        <v>144360</v>
       </c>
       <c r="AO103" s="13" t="n">
-        <v>144360</v>
-      </c>
-      <c r="AP103" s="13" t="n">
         <v>169020</v>
+      </c>
+      <c r="AP103" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ103" s="13" t="s">
         <v>57</v>
@@ -16994,18 +16994,18 @@
       <c r="Q104" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R104" s="16" t="s">
-        <v>57</v>
+      <c r="R104" s="16" t="n">
+        <v>84516</v>
       </c>
       <c r="S104" s="16" t="n">
-        <v>84516</v>
+        <v>52353</v>
       </c>
       <c r="T104" s="16" t="n">
-        <v>52353</v>
-      </c>
-      <c r="U104" s="16" t="n">
         <v>81434</v>
       </c>
+      <c r="U104" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="V104" s="16" t="s">
         <v>57</v>
       </c>
@@ -17066,44 +17066,44 @@
       <c r="AO104" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP104" s="16" t="s">
-        <v>57</v>
+      <c r="AP104" s="16" t="n">
+        <v>61503</v>
       </c>
       <c r="AQ104" s="16" t="n">
-        <v>61503</v>
+        <v>60884</v>
       </c>
       <c r="AR104" s="16" t="n">
-        <v>60884</v>
+        <v>131910</v>
       </c>
       <c r="AS104" s="16" t="n">
-        <v>131910</v>
+        <v>79182</v>
       </c>
       <c r="AT104" s="16" t="n">
-        <v>79182</v>
+        <v>91308</v>
       </c>
       <c r="AU104" s="16" t="n">
-        <v>91308</v>
+        <v>134103</v>
       </c>
       <c r="AV104" s="16" t="n">
-        <v>134103</v>
+        <v>146916</v>
       </c>
       <c r="AW104" s="16" t="n">
-        <v>146916</v>
+        <v>157234</v>
       </c>
       <c r="AX104" s="16" t="n">
-        <v>157234</v>
+        <v>161940</v>
       </c>
       <c r="AY104" s="16" t="n">
-        <v>161940</v>
+        <v>130588</v>
       </c>
       <c r="AZ104" s="16" t="n">
-        <v>130588</v>
+        <v>140854</v>
       </c>
       <c r="BA104" s="16" t="n">
-        <v>140854</v>
+        <v>195795</v>
       </c>
       <c r="BB104" s="16" t="n">
-        <v>195795</v>
+        <v>137259</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17153,18 +17153,18 @@
       <c r="Q105" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R105" s="13" t="s">
-        <v>57</v>
+      <c r="R105" s="13" t="n">
+        <v>8758</v>
       </c>
       <c r="S105" s="13" t="n">
-        <v>8758</v>
+        <v>8242</v>
       </c>
       <c r="T105" s="13" t="n">
-        <v>8242</v>
-      </c>
-      <c r="U105" s="13" t="n">
         <v>12759</v>
       </c>
+      <c r="U105" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V105" s="13" t="s">
         <v>57</v>
       </c>
@@ -17225,44 +17225,44 @@
       <c r="AO105" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP105" s="13" t="s">
-        <v>57</v>
+      <c r="AP105" s="13" t="n">
+        <v>8690</v>
       </c>
       <c r="AQ105" s="13" t="n">
-        <v>8690</v>
+        <v>18790</v>
       </c>
       <c r="AR105" s="13" t="n">
-        <v>18790</v>
+        <v>21008</v>
       </c>
       <c r="AS105" s="13" t="n">
-        <v>21008</v>
+        <v>29533</v>
       </c>
       <c r="AT105" s="13" t="n">
-        <v>29533</v>
+        <v>36806</v>
       </c>
       <c r="AU105" s="13" t="n">
-        <v>36806</v>
+        <v>41214</v>
       </c>
       <c r="AV105" s="13" t="n">
-        <v>41214</v>
+        <v>35383</v>
       </c>
       <c r="AW105" s="13" t="n">
-        <v>35383</v>
+        <v>37217</v>
       </c>
       <c r="AX105" s="13" t="n">
-        <v>37217</v>
+        <v>43148</v>
       </c>
       <c r="AY105" s="13" t="n">
-        <v>43148</v>
+        <v>35954</v>
       </c>
       <c r="AZ105" s="13" t="n">
-        <v>35954</v>
+        <v>55748</v>
       </c>
       <c r="BA105" s="13" t="n">
-        <v>55748</v>
+        <v>53862</v>
       </c>
       <c r="BB105" s="13" t="n">
-        <v>53862</v>
+        <v>32587</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17312,17 +17312,17 @@
       <c r="Q106" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R106" s="16" t="s">
-        <v>57</v>
+      <c r="R106" s="16" t="n">
+        <v>24969</v>
       </c>
       <c r="S106" s="16" t="n">
-        <v>24969</v>
+        <v>18798</v>
       </c>
       <c r="T106" s="16" t="n">
-        <v>18798</v>
-      </c>
-      <c r="U106" s="16" t="n">
         <v>24766</v>
+      </c>
+      <c r="U106" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="V106" s="16" t="s">
         <v>57</v>
@@ -17456,23 +17456,23 @@
       <c r="L107" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M107" s="13" t="s">
-        <v>57</v>
+      <c r="M107" s="13" t="n">
+        <v>80344</v>
       </c>
       <c r="N107" s="13" t="n">
-        <v>80344</v>
+        <v>76085</v>
       </c>
       <c r="O107" s="13" t="n">
-        <v>76085</v>
+        <v>61167</v>
       </c>
       <c r="P107" s="13" t="n">
-        <v>61167</v>
+        <v>82333</v>
       </c>
       <c r="Q107" s="13" t="n">
-        <v>82333</v>
-      </c>
-      <c r="R107" s="13" t="n">
         <v>89453</v>
+      </c>
+      <c r="R107" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S107" s="13" t="s">
         <v>57</v>
@@ -17615,23 +17615,23 @@
       <c r="L108" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="M108" s="16" t="s">
-        <v>57</v>
+      <c r="M108" s="16" t="n">
+        <v>9979</v>
       </c>
       <c r="N108" s="16" t="n">
-        <v>9979</v>
+        <v>9894</v>
       </c>
       <c r="O108" s="16" t="n">
-        <v>9894</v>
+        <v>9532</v>
       </c>
       <c r="P108" s="16" t="n">
-        <v>9532</v>
+        <v>11366</v>
       </c>
       <c r="Q108" s="16" t="n">
-        <v>11366</v>
-      </c>
-      <c r="R108" s="16" t="n">
         <v>14289</v>
+      </c>
+      <c r="R108" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S108" s="16" t="s">
         <v>57</v>
@@ -17774,32 +17774,32 @@
       <c r="L109" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M109" s="13" t="s">
-        <v>57</v>
+      <c r="M109" s="13" t="n">
+        <v>6902</v>
       </c>
       <c r="N109" s="13" t="n">
-        <v>6902</v>
+        <v>1391</v>
       </c>
       <c r="O109" s="13" t="n">
-        <v>1391</v>
+        <v>0</v>
       </c>
       <c r="P109" s="13" t="n">
         <v>0</v>
       </c>
       <c r="Q109" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R109" s="13" t="n">
         <v>67586</v>
       </c>
+      <c r="R109" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S109" s="13" t="s">
         <v>57</v>
       </c>
       <c r="T109" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U109" s="13" t="s">
-        <v>57</v>
+      <c r="U109" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V109" s="13" t="n">
         <v>0</v>
@@ -17810,8 +17810,8 @@
       <c r="X109" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Y109" s="13" t="n">
-        <v>0</v>
+      <c r="Y109" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="Z109" s="13" t="s">
         <v>57</v>
@@ -17957,41 +17957,41 @@
       <c r="T110" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U110" s="16" t="s">
-        <v>57</v>
+      <c r="U110" s="16" t="n">
+        <v>8764</v>
       </c>
       <c r="V110" s="16" t="n">
-        <v>8764</v>
+        <v>13450</v>
       </c>
       <c r="W110" s="16" t="n">
-        <v>13450</v>
+        <v>8955</v>
       </c>
       <c r="X110" s="16" t="n">
-        <v>8955</v>
+        <v>18828</v>
       </c>
       <c r="Y110" s="16" t="n">
-        <v>18828</v>
+        <v>4067</v>
       </c>
       <c r="Z110" s="16" t="n">
-        <v>4067</v>
+        <v>461</v>
       </c>
       <c r="AA110" s="16" t="n">
-        <v>461</v>
+        <v>699</v>
       </c>
       <c r="AB110" s="16" t="n">
-        <v>699</v>
+        <v>3521</v>
       </c>
       <c r="AC110" s="16" t="n">
-        <v>3521</v>
+        <v>1604</v>
       </c>
       <c r="AD110" s="16" t="n">
-        <v>1604</v>
+        <v>1743</v>
       </c>
       <c r="AE110" s="16" t="n">
-        <v>1743</v>
+        <v>823</v>
       </c>
       <c r="AF110" s="16" t="n">
-        <v>823</v>
+        <v>0</v>
       </c>
       <c r="AG110" s="16" t="n">
         <v>0</v>
@@ -18020,8 +18020,8 @@
       <c r="AO110" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP110" s="16" t="n">
-        <v>0</v>
+      <c r="AP110" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ110" s="16" t="s">
         <v>57</v>
@@ -18092,32 +18092,32 @@
       <c r="L111" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M111" s="13" t="s">
-        <v>57</v>
+      <c r="M111" s="13" t="n">
+        <v>21996</v>
       </c>
       <c r="N111" s="13" t="n">
-        <v>21996</v>
+        <v>32477</v>
       </c>
       <c r="O111" s="13" t="n">
-        <v>32477</v>
+        <v>20682</v>
       </c>
       <c r="P111" s="13" t="n">
-        <v>20682</v>
+        <v>29161</v>
       </c>
       <c r="Q111" s="13" t="n">
-        <v>29161</v>
-      </c>
-      <c r="R111" s="13" t="n">
         <v>22436</v>
       </c>
-      <c r="S111" s="13" t="s">
-        <v>57</v>
+      <c r="R111" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S111" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="T111" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="U111" s="13" t="n">
-        <v>0</v>
+      <c r="U111" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V111" s="13" t="s">
         <v>57</v>
@@ -18179,44 +18179,44 @@
       <c r="AO111" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP111" s="13" t="s">
-        <v>57</v>
+      <c r="AP111" s="13" t="n">
+        <v>155470</v>
       </c>
       <c r="AQ111" s="13" t="n">
-        <v>155470</v>
+        <v>151423</v>
       </c>
       <c r="AR111" s="13" t="n">
-        <v>151423</v>
+        <v>140265</v>
       </c>
       <c r="AS111" s="13" t="n">
-        <v>140265</v>
+        <v>118631</v>
       </c>
       <c r="AT111" s="13" t="n">
-        <v>118631</v>
+        <v>129991</v>
       </c>
       <c r="AU111" s="13" t="n">
-        <v>129991</v>
+        <v>166456</v>
       </c>
       <c r="AV111" s="13" t="n">
-        <v>166456</v>
+        <v>170887</v>
       </c>
       <c r="AW111" s="13" t="n">
-        <v>170887</v>
+        <v>190639</v>
       </c>
       <c r="AX111" s="13" t="n">
-        <v>190639</v>
+        <v>229870</v>
       </c>
       <c r="AY111" s="13" t="n">
-        <v>229870</v>
+        <v>212111</v>
       </c>
       <c r="AZ111" s="13" t="n">
-        <v>212111</v>
+        <v>206443</v>
       </c>
       <c r="BA111" s="13" t="n">
-        <v>206443</v>
+        <v>231883</v>
       </c>
       <c r="BB111" s="13" t="n">
-        <v>231883</v>
+        <v>193333</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18275,38 +18275,38 @@
       <c r="T112" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U112" s="16" t="s">
-        <v>57</v>
+      <c r="U112" s="16" t="n">
+        <v>192</v>
       </c>
       <c r="V112" s="16" t="n">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="W112" s="16" t="n">
-        <v>0</v>
+        <v>1696</v>
       </c>
       <c r="X112" s="16" t="n">
-        <v>1696</v>
+        <v>6149</v>
       </c>
       <c r="Y112" s="16" t="n">
-        <v>6149</v>
+        <v>483</v>
       </c>
       <c r="Z112" s="16" t="n">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="AA112" s="16" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AB112" s="16" t="n">
-        <v>64</v>
+        <v>405</v>
       </c>
       <c r="AC112" s="16" t="n">
-        <v>405</v>
+        <v>3078</v>
       </c>
       <c r="AD112" s="16" t="n">
-        <v>3078</v>
+        <v>57</v>
       </c>
       <c r="AE112" s="16" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="AF112" s="16" t="n">
         <v>0</v>
@@ -18338,8 +18338,8 @@
       <c r="AO112" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP112" s="16" t="n">
-        <v>0</v>
+      <c r="AP112" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ112" s="16" t="s">
         <v>57</v>
@@ -18387,31 +18387,31 @@
       </c>
       <c r="D113" s="13"/>
       <c r="E113" s="13" t="n">
-        <v>102175</v>
+        <v>122770</v>
       </c>
       <c r="F113" s="13" t="n">
-        <v>122770</v>
+        <v>82694</v>
       </c>
       <c r="G113" s="13" t="n">
-        <v>82694</v>
+        <v>100915</v>
       </c>
       <c r="H113" s="13" t="n">
-        <v>100915</v>
+        <v>72974</v>
       </c>
       <c r="I113" s="13" t="n">
-        <v>72974</v>
+        <v>95272</v>
       </c>
       <c r="J113" s="13" t="n">
-        <v>95272</v>
+        <v>101537</v>
       </c>
       <c r="K113" s="13" t="n">
-        <v>101537</v>
+        <v>139416</v>
       </c>
       <c r="L113" s="13" t="n">
-        <v>139416</v>
+        <v>134143</v>
       </c>
       <c r="M113" s="13" t="n">
-        <v>134143</v>
+        <v>0</v>
       </c>
       <c r="N113" s="13" t="n">
         <v>0</v>
@@ -18425,8 +18425,8 @@
       <c r="Q113" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R113" s="13" t="n">
-        <v>0</v>
+      <c r="R113" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S113" s="13" t="s">
         <v>57</v>
@@ -18584,18 +18584,18 @@
       <c r="Q114" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R114" s="16" t="s">
-        <v>57</v>
+      <c r="R114" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="S114" s="16" t="n">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="T114" s="16" t="n">
-        <v>201</v>
-      </c>
-      <c r="U114" s="16" t="n">
         <v>189</v>
       </c>
+      <c r="U114" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="V114" s="16" t="s">
         <v>57</v>
       </c>
@@ -18656,44 +18656,44 @@
       <c r="AO114" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP114" s="16" t="s">
-        <v>57</v>
+      <c r="AP114" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ114" s="16" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="AR114" s="16" t="n">
-        <v>195</v>
+        <v>70</v>
       </c>
       <c r="AS114" s="16" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AT114" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AU114" s="16" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="AV114" s="16" t="n">
-        <v>184</v>
+        <v>279</v>
       </c>
       <c r="AW114" s="16" t="n">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="AX114" s="16" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AY114" s="16" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AZ114" s="16" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="BA114" s="16" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="BB114" s="16" t="n">
-        <v>101</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18728,11 +18728,11 @@
       <c r="L115" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M115" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="N115" s="13" t="n">
-        <v>0</v>
+      <c r="M115" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="O115" s="13" t="s">
         <v>57</v>
@@ -18887,74 +18887,74 @@
       <c r="L116" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="M116" s="16" t="s">
-        <v>57</v>
+      <c r="M116" s="16" t="n">
+        <v>70</v>
       </c>
       <c r="N116" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="P116" s="16" t="n">
         <v>70</v>
       </c>
-      <c r="O116" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P116" s="16" t="n">
-        <v>24</v>
-      </c>
       <c r="Q116" s="16" t="n">
-        <v>70</v>
-      </c>
-      <c r="R116" s="16" t="n">
         <v>93</v>
       </c>
+      <c r="R116" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="S116" s="16" t="s">
         <v>57</v>
       </c>
       <c r="T116" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U116" s="16" t="s">
-        <v>57</v>
+      <c r="U116" s="16" t="n">
+        <v>135</v>
       </c>
       <c r="V116" s="16" t="n">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="W116" s="16" t="n">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="X116" s="16" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="Y116" s="16" t="n">
-        <v>230</v>
+        <v>83</v>
       </c>
       <c r="Z116" s="16" t="n">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="AA116" s="16" t="n">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="AB116" s="16" t="n">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="AC116" s="16" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AD116" s="16" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE116" s="16" t="n">
         <v>29</v>
       </c>
       <c r="AF116" s="16" t="n">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="AG116" s="16" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="AH116" s="16" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AI116" s="16" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AJ116" s="16" t="n">
         <v>0</v>
@@ -18963,19 +18963,19 @@
         <v>0</v>
       </c>
       <c r="AL116" s="16" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AM116" s="16" t="n">
-        <v>94</v>
+        <v>386</v>
       </c>
       <c r="AN116" s="16" t="n">
-        <v>386</v>
+        <v>189</v>
       </c>
       <c r="AO116" s="16" t="n">
-        <v>189</v>
-      </c>
-      <c r="AP116" s="16" t="n">
         <v>56</v>
+      </c>
+      <c r="AP116" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ116" s="16" t="s">
         <v>57</v>
@@ -19049,8 +19049,8 @@
       <c r="M117" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="N117" s="13" t="s">
-        <v>57</v>
+      <c r="N117" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="O117" s="13" t="n">
         <v>0</v>
@@ -19061,8 +19061,8 @@
       <c r="Q117" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R117" s="13" t="n">
-        <v>0</v>
+      <c r="R117" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S117" s="13" t="s">
         <v>57</v>
@@ -19070,8 +19070,8 @@
       <c r="T117" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U117" s="13" t="s">
-        <v>57</v>
+      <c r="U117" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V117" s="13" t="n">
         <v>0</v>
@@ -19097,8 +19097,8 @@
       <c r="AC117" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD117" s="13" t="n">
-        <v>0</v>
+      <c r="AD117" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE117" s="13" t="s">
         <v>57</v>
@@ -19229,71 +19229,71 @@
       <c r="T118" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U118" s="16" t="s">
-        <v>57</v>
+      <c r="U118" s="16" t="n">
+        <v>14111</v>
       </c>
       <c r="V118" s="16" t="n">
-        <v>14111</v>
+        <v>9065</v>
       </c>
       <c r="W118" s="16" t="n">
-        <v>9065</v>
+        <v>12995</v>
       </c>
       <c r="X118" s="16" t="n">
-        <v>12995</v>
+        <v>14590</v>
       </c>
       <c r="Y118" s="16" t="n">
-        <v>14590</v>
+        <v>17822</v>
       </c>
       <c r="Z118" s="16" t="n">
-        <v>17822</v>
+        <v>18166</v>
       </c>
       <c r="AA118" s="16" t="n">
-        <v>18166</v>
+        <v>14816</v>
       </c>
       <c r="AB118" s="16" t="n">
-        <v>14816</v>
+        <v>18647</v>
       </c>
       <c r="AC118" s="16" t="n">
-        <v>18647</v>
+        <v>20769</v>
       </c>
       <c r="AD118" s="16" t="n">
-        <v>20769</v>
+        <v>14564</v>
       </c>
       <c r="AE118" s="16" t="n">
-        <v>14564</v>
+        <v>21671</v>
       </c>
       <c r="AF118" s="16" t="n">
-        <v>21671</v>
+        <v>26563</v>
       </c>
       <c r="AG118" s="16" t="n">
-        <v>26563</v>
+        <v>20608</v>
       </c>
       <c r="AH118" s="16" t="n">
-        <v>20608</v>
+        <v>13705</v>
       </c>
       <c r="AI118" s="16" t="n">
-        <v>13705</v>
+        <v>7662</v>
       </c>
       <c r="AJ118" s="16" t="n">
-        <v>7662</v>
+        <v>13435</v>
       </c>
       <c r="AK118" s="16" t="n">
-        <v>13435</v>
+        <v>35800</v>
       </c>
       <c r="AL118" s="16" t="n">
-        <v>35800</v>
+        <v>36760</v>
       </c>
       <c r="AM118" s="16" t="n">
-        <v>36760</v>
+        <v>31283</v>
       </c>
       <c r="AN118" s="16" t="n">
-        <v>31283</v>
+        <v>30434</v>
       </c>
       <c r="AO118" s="16" t="n">
-        <v>30434</v>
-      </c>
-      <c r="AP118" s="16" t="n">
         <v>50125</v>
+      </c>
+      <c r="AP118" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ118" s="16" t="s">
         <v>57</v>
@@ -19388,71 +19388,71 @@
       <c r="T119" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U119" s="13" t="s">
-        <v>57</v>
+      <c r="U119" s="13" t="n">
+        <v>115109</v>
       </c>
       <c r="V119" s="13" t="n">
-        <v>115109</v>
+        <v>93812</v>
       </c>
       <c r="W119" s="13" t="n">
-        <v>93812</v>
+        <v>93600</v>
       </c>
       <c r="X119" s="13" t="n">
-        <v>93600</v>
+        <v>77094</v>
       </c>
       <c r="Y119" s="13" t="n">
-        <v>77094</v>
+        <v>101363</v>
       </c>
       <c r="Z119" s="13" t="n">
-        <v>101363</v>
+        <v>117482</v>
       </c>
       <c r="AA119" s="13" t="n">
-        <v>117482</v>
+        <v>65463</v>
       </c>
       <c r="AB119" s="13" t="n">
-        <v>65463</v>
+        <v>113703</v>
       </c>
       <c r="AC119" s="13" t="n">
-        <v>113703</v>
+        <v>137615</v>
       </c>
       <c r="AD119" s="13" t="n">
-        <v>137615</v>
+        <v>95447</v>
       </c>
       <c r="AE119" s="13" t="n">
-        <v>95447</v>
+        <v>114232</v>
       </c>
       <c r="AF119" s="13" t="n">
-        <v>114232</v>
+        <v>96917</v>
       </c>
       <c r="AG119" s="13" t="n">
-        <v>96917</v>
+        <v>78090</v>
       </c>
       <c r="AH119" s="13" t="n">
-        <v>78090</v>
+        <v>47008</v>
       </c>
       <c r="AI119" s="13" t="n">
-        <v>47008</v>
+        <v>21687</v>
       </c>
       <c r="AJ119" s="13" t="n">
-        <v>21687</v>
+        <v>40440</v>
       </c>
       <c r="AK119" s="13" t="n">
-        <v>40440</v>
+        <v>135286</v>
       </c>
       <c r="AL119" s="13" t="n">
-        <v>135286</v>
+        <v>146009</v>
       </c>
       <c r="AM119" s="13" t="n">
-        <v>146009</v>
+        <v>112144</v>
       </c>
       <c r="AN119" s="13" t="n">
-        <v>112144</v>
+        <v>110990</v>
       </c>
       <c r="AO119" s="13" t="n">
-        <v>110990</v>
-      </c>
-      <c r="AP119" s="13" t="n">
         <v>147220</v>
+      </c>
+      <c r="AP119" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ119" s="13" t="s">
         <v>57</v>
@@ -19538,17 +19538,17 @@
       <c r="Q120" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R120" s="16" t="s">
-        <v>57</v>
+      <c r="R120" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="S120" s="16" t="n">
-        <v>0</v>
+        <v>67039</v>
       </c>
       <c r="T120" s="16" t="n">
-        <v>67039</v>
-      </c>
-      <c r="U120" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="U120" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="V120" s="16" t="s">
         <v>57</v>
@@ -19703,14 +19703,14 @@
       <c r="S121" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T121" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U121" s="13" t="n">
+      <c r="T121" s="13" t="n">
         <v>238</v>
       </c>
-      <c r="V121" s="13" t="s">
-        <v>57</v>
+      <c r="U121" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V121" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="W121" s="13" t="n">
         <v>0</v>
@@ -19719,13 +19719,13 @@
         <v>0</v>
       </c>
       <c r="Y121" s="13" t="n">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="Z121" s="13" t="n">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="AA121" s="13" t="n">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="AB121" s="13" t="n">
         <v>0</v>
@@ -19733,65 +19733,65 @@
       <c r="AC121" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD121" s="13" t="n">
-        <v>0</v>
+      <c r="AD121" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE121" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF121" s="13" t="s">
-        <v>57</v>
+      <c r="AF121" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AG121" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AH121" s="13" t="n">
-        <v>0</v>
+        <v>769</v>
       </c>
       <c r="AI121" s="13" t="n">
-        <v>769</v>
+        <v>815</v>
       </c>
       <c r="AJ121" s="13" t="n">
-        <v>815</v>
+        <v>776</v>
       </c>
       <c r="AK121" s="13" t="n">
-        <v>776</v>
+        <v>719</v>
       </c>
       <c r="AL121" s="13" t="n">
-        <v>719</v>
+        <v>765</v>
       </c>
       <c r="AM121" s="13" t="n">
-        <v>765</v>
+        <v>460</v>
       </c>
       <c r="AN121" s="13" t="n">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="AO121" s="13" t="n">
-        <v>451</v>
-      </c>
-      <c r="AP121" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ121" s="13" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="AP121" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ121" s="13" t="n">
+        <v>1379</v>
       </c>
       <c r="AR121" s="13" t="n">
-        <v>1379</v>
+        <v>1031</v>
       </c>
       <c r="AS121" s="13" t="n">
-        <v>1031</v>
+        <v>569</v>
       </c>
       <c r="AT121" s="13" t="n">
-        <v>569</v>
+        <v>0</v>
       </c>
       <c r="AU121" s="13" t="n">
-        <v>0</v>
+        <v>1215</v>
       </c>
       <c r="AV121" s="13" t="n">
-        <v>1215</v>
+        <v>3235</v>
       </c>
       <c r="AW121" s="13" t="n">
-        <v>3235</v>
+        <v>0</v>
       </c>
       <c r="AX121" s="13" t="n">
         <v>0</v>
@@ -19805,8 +19805,8 @@
       <c r="BA121" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB121" s="13" t="n">
-        <v>0</v>
+      <c r="BB121" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19877,8 +19877,8 @@
       <c r="X122" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="Y122" s="16" t="s">
-        <v>57</v>
+      <c r="Y122" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="Z122" s="16" t="n">
         <v>0</v>
@@ -19892,8 +19892,8 @@
       <c r="AC122" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD122" s="16" t="n">
-        <v>0</v>
+      <c r="AD122" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE122" s="16" t="s">
         <v>57</v>
@@ -20024,11 +20024,11 @@
       <c r="T123" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U123" s="13" t="s">
-        <v>57</v>
+      <c r="U123" s="13" t="n">
+        <v>144</v>
       </c>
       <c r="V123" s="13" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="W123" s="13" t="n">
         <v>0</v>
@@ -20036,8 +20036,8 @@
       <c r="X123" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Y123" s="13" t="n">
-        <v>0</v>
+      <c r="Y123" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="Z123" s="13" t="s">
         <v>57</v>
@@ -20189,11 +20189,11 @@
       <c r="V124" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="W124" s="16" t="s">
-        <v>57</v>
+      <c r="W124" s="16" t="n">
+        <v>6</v>
       </c>
       <c r="X124" s="16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y124" s="16" t="n">
         <v>0</v>
@@ -20210,8 +20210,8 @@
       <c r="AC124" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD124" s="16" t="n">
-        <v>0</v>
+      <c r="AD124" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE124" s="16" t="s">
         <v>57</v>
@@ -20228,8 +20228,8 @@
       <c r="AI124" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AJ124" s="16" t="s">
-        <v>57</v>
+      <c r="AJ124" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AK124" s="16" t="n">
         <v>0</v>
@@ -20246,8 +20246,8 @@
       <c r="AO124" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP124" s="16" t="n">
-        <v>0</v>
+      <c r="AP124" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ124" s="16" t="s">
         <v>57</v>
@@ -20342,14 +20342,14 @@
       <c r="T125" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U125" s="13" t="s">
-        <v>57</v>
+      <c r="U125" s="13" t="n">
+        <v>14835</v>
       </c>
       <c r="V125" s="13" t="n">
-        <v>14835</v>
+        <v>4062</v>
       </c>
       <c r="W125" s="13" t="n">
-        <v>4062</v>
+        <v>0</v>
       </c>
       <c r="X125" s="13" t="n">
         <v>0</v>
@@ -20367,13 +20367,13 @@
         <v>0</v>
       </c>
       <c r="AC125" s="13" t="n">
-        <v>0</v>
+        <v>1175</v>
       </c>
       <c r="AD125" s="13" t="n">
-        <v>1175</v>
+        <v>8718</v>
       </c>
       <c r="AE125" s="13" t="n">
-        <v>8718</v>
+        <v>0</v>
       </c>
       <c r="AF125" s="13" t="n">
         <v>0</v>
@@ -20405,8 +20405,8 @@
       <c r="AO125" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP125" s="13" t="n">
-        <v>0</v>
+      <c r="AP125" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ125" s="13" t="s">
         <v>57</v>
@@ -20501,14 +20501,14 @@
       <c r="T126" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U126" s="16" t="s">
-        <v>57</v>
+      <c r="U126" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V126" s="16" t="n">
-        <v>0</v>
+        <v>82264</v>
       </c>
       <c r="W126" s="16" t="n">
-        <v>82264</v>
+        <v>0</v>
       </c>
       <c r="X126" s="16" t="n">
         <v>0</v>
@@ -20517,10 +20517,10 @@
         <v>0</v>
       </c>
       <c r="Z126" s="16" t="n">
-        <v>0</v>
+        <v>273836</v>
       </c>
       <c r="AA126" s="16" t="n">
-        <v>273836</v>
+        <v>0</v>
       </c>
       <c r="AB126" s="16" t="n">
         <v>0</v>
@@ -20528,14 +20528,14 @@
       <c r="AC126" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD126" s="16" t="n">
-        <v>0</v>
+      <c r="AD126" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE126" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AF126" s="16" t="s">
-        <v>57</v>
+      <c r="AF126" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AG126" s="16" t="n">
         <v>0</v>
@@ -20564,8 +20564,8 @@
       <c r="AO126" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP126" s="16" t="n">
-        <v>0</v>
+      <c r="AP126" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ126" s="16" t="s">
         <v>57</v>
@@ -20666,8 +20666,8 @@
       <c r="V127" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W127" s="13" t="s">
-        <v>57</v>
+      <c r="W127" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="X127" s="13" t="n">
         <v>0</v>
@@ -20687,8 +20687,8 @@
       <c r="AC127" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD127" s="13" t="n">
-        <v>0</v>
+      <c r="AD127" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE127" s="13" t="s">
         <v>57</v>
@@ -20816,12 +20816,12 @@
       <c r="S128" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="T128" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="U128" s="16" t="n">
+      <c r="T128" s="16" t="n">
         <v>1951</v>
       </c>
+      <c r="U128" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="V128" s="16" t="s">
         <v>57</v>
       </c>
@@ -20882,8 +20882,8 @@
       <c r="AO128" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP128" s="16" t="s">
-        <v>57</v>
+      <c r="AP128" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ128" s="16" t="n">
         <v>0</v>
@@ -20918,8 +20918,8 @@
       <c r="BA128" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BB128" s="16" t="n">
-        <v>0</v>
+      <c r="BB128" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20975,11 +20975,11 @@
       <c r="S129" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T129" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U129" s="13" t="n">
-        <v>0</v>
+      <c r="T129" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U129" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V129" s="13" t="s">
         <v>57</v>
@@ -21194,8 +21194,8 @@
       <c r="T131" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U131" s="20" t="s">
-        <v>57</v>
+      <c r="U131" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V131" s="23" t="n">
         <v>0</v>
@@ -21410,8 +21410,8 @@
       <c r="T133" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U133" s="20" t="s">
-        <v>57</v>
+      <c r="U133" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V133" s="23" t="n">
         <v>0</v>
@@ -21626,8 +21626,8 @@
       <c r="T135" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U135" s="13" t="s">
-        <v>57</v>
+      <c r="U135" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V135" s="13" t="n">
         <v>0</v>
@@ -21736,154 +21736,154 @@
       <c r="C136" s="22"/>
       <c r="D136" s="22"/>
       <c r="E136" s="22" t="n">
-        <v>102175</v>
+        <v>122770</v>
       </c>
       <c r="F136" s="22" t="n">
-        <v>122770</v>
+        <v>82694</v>
       </c>
       <c r="G136" s="22" t="n">
-        <v>82694</v>
+        <v>100915</v>
       </c>
       <c r="H136" s="22" t="n">
-        <v>100915</v>
+        <v>72974</v>
       </c>
       <c r="I136" s="22" t="n">
-        <v>72974</v>
+        <v>95272</v>
       </c>
       <c r="J136" s="22" t="n">
-        <v>95272</v>
+        <v>101537</v>
       </c>
       <c r="K136" s="22" t="n">
-        <v>101537</v>
+        <v>139416</v>
       </c>
       <c r="L136" s="22" t="n">
-        <v>139416</v>
+        <v>134143</v>
       </c>
       <c r="M136" s="22" t="n">
-        <v>134143</v>
+        <v>151581</v>
       </c>
       <c r="N136" s="22" t="n">
-        <v>151581</v>
+        <v>161003</v>
       </c>
       <c r="O136" s="22" t="n">
-        <v>161003</v>
+        <v>143783</v>
       </c>
       <c r="P136" s="22" t="n">
-        <v>143783</v>
+        <v>151720</v>
       </c>
       <c r="Q136" s="22" t="n">
-        <v>151720</v>
+        <v>220949</v>
       </c>
       <c r="R136" s="22" t="n">
-        <v>220949</v>
+        <v>128862</v>
       </c>
       <c r="S136" s="22" t="n">
-        <v>128862</v>
+        <v>170623</v>
       </c>
       <c r="T136" s="22" t="n">
-        <v>170623</v>
+        <v>148242</v>
       </c>
       <c r="U136" s="22" t="n">
-        <v>148242</v>
+        <v>230349</v>
       </c>
       <c r="V136" s="22" t="n">
-        <v>230349</v>
+        <v>289935</v>
       </c>
       <c r="W136" s="22" t="n">
-        <v>289935</v>
+        <v>202430</v>
       </c>
       <c r="X136" s="22" t="n">
-        <v>202430</v>
+        <v>194517</v>
       </c>
       <c r="Y136" s="22" t="n">
-        <v>194517</v>
+        <v>214256</v>
       </c>
       <c r="Z136" s="22" t="n">
-        <v>214256</v>
+        <v>531621</v>
       </c>
       <c r="AA136" s="22" t="n">
-        <v>531621</v>
+        <v>207355</v>
       </c>
       <c r="AB136" s="22" t="n">
-        <v>207355</v>
+        <v>218587</v>
       </c>
       <c r="AC136" s="22" t="n">
-        <v>218587</v>
+        <v>234044</v>
       </c>
       <c r="AD136" s="22" t="n">
-        <v>234044</v>
+        <v>176551</v>
       </c>
       <c r="AE136" s="22" t="n">
-        <v>176551</v>
+        <v>305723</v>
       </c>
       <c r="AF136" s="22" t="n">
-        <v>305723</v>
+        <v>301237</v>
       </c>
       <c r="AG136" s="22" t="n">
-        <v>301237</v>
+        <v>238340</v>
       </c>
       <c r="AH136" s="22" t="n">
-        <v>238340</v>
+        <v>176835</v>
       </c>
       <c r="AI136" s="22" t="n">
-        <v>176835</v>
+        <v>458798</v>
       </c>
       <c r="AJ136" s="22" t="n">
-        <v>458798</v>
+        <v>362149</v>
       </c>
       <c r="AK136" s="22" t="n">
-        <v>362149</v>
+        <v>357722</v>
       </c>
       <c r="AL136" s="22" t="n">
-        <v>357722</v>
+        <v>375985</v>
       </c>
       <c r="AM136" s="22" t="n">
-        <v>375985</v>
+        <v>352792</v>
       </c>
       <c r="AN136" s="22" t="n">
-        <v>352792</v>
+        <v>435323</v>
       </c>
       <c r="AO136" s="22" t="n">
-        <v>435323</v>
+        <v>565148</v>
       </c>
       <c r="AP136" s="22" t="n">
-        <v>565148</v>
+        <v>316427</v>
       </c>
       <c r="AQ136" s="22" t="n">
-        <v>316427</v>
+        <v>355575</v>
       </c>
       <c r="AR136" s="22" t="n">
-        <v>355575</v>
+        <v>448032</v>
       </c>
       <c r="AS136" s="22" t="n">
-        <v>448032</v>
+        <v>359572</v>
       </c>
       <c r="AT136" s="22" t="n">
-        <v>359572</v>
+        <v>414314</v>
       </c>
       <c r="AU136" s="22" t="n">
-        <v>414314</v>
+        <v>512676</v>
       </c>
       <c r="AV136" s="22" t="n">
-        <v>512676</v>
+        <v>517788</v>
       </c>
       <c r="AW136" s="22" t="n">
-        <v>517788</v>
+        <v>548969</v>
       </c>
       <c r="AX136" s="22" t="n">
-        <v>548969</v>
+        <v>619546</v>
       </c>
       <c r="AY136" s="22" t="n">
-        <v>619546</v>
+        <v>560874</v>
       </c>
       <c r="AZ136" s="22" t="n">
-        <v>560874</v>
+        <v>596624</v>
       </c>
       <c r="BA136" s="22" t="n">
-        <v>596624</v>
+        <v>717768</v>
       </c>
       <c r="BB136" s="22" t="n">
-        <v>717768</v>
+        <v>435302</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22367,8 +22367,8 @@
       <c r="Q143" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R143" s="13" t="n">
-        <v>0</v>
+      <c r="R143" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S143" s="13" t="s">
         <v>57</v>
@@ -22535,71 +22535,71 @@
       <c r="T144" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U144" s="16" t="s">
-        <v>57</v>
+      <c r="U144" s="16" t="n">
+        <v>2265779</v>
       </c>
       <c r="V144" s="16" t="n">
-        <v>2265779</v>
+        <v>2545076</v>
       </c>
       <c r="W144" s="16" t="n">
-        <v>2545076</v>
+        <v>2695130</v>
       </c>
       <c r="X144" s="16" t="n">
-        <v>2695130</v>
+        <v>2739172</v>
       </c>
       <c r="Y144" s="16" t="n">
-        <v>2739172</v>
+        <v>2945105</v>
       </c>
       <c r="Z144" s="16" t="n">
-        <v>2945105</v>
+        <v>3030201</v>
       </c>
       <c r="AA144" s="16" t="n">
-        <v>3030201</v>
+        <v>3052750</v>
       </c>
       <c r="AB144" s="16" t="n">
-        <v>3052750</v>
+        <v>3079543</v>
       </c>
       <c r="AC144" s="16" t="n">
-        <v>3079543</v>
+        <v>3088269</v>
       </c>
       <c r="AD144" s="16" t="n">
-        <v>3088269</v>
+        <v>3362429</v>
       </c>
       <c r="AE144" s="16" t="n">
-        <v>3362429</v>
+        <v>4261400</v>
       </c>
       <c r="AF144" s="16" t="n">
-        <v>4261400</v>
+        <v>4638041</v>
       </c>
       <c r="AG144" s="16" t="n">
-        <v>4638041</v>
+        <v>5059564</v>
       </c>
       <c r="AH144" s="16" t="n">
-        <v>5059564</v>
+        <v>6076841</v>
       </c>
       <c r="AI144" s="16" t="n">
-        <v>6076841</v>
+        <v>7156382</v>
       </c>
       <c r="AJ144" s="16" t="n">
-        <v>7156382</v>
+        <v>5509325</v>
       </c>
       <c r="AK144" s="16" t="n">
-        <v>5509325</v>
+        <v>6146906</v>
       </c>
       <c r="AL144" s="16" t="n">
-        <v>6146906</v>
+        <v>5946686</v>
       </c>
       <c r="AM144" s="16" t="n">
-        <v>5946686</v>
+        <v>5820461</v>
       </c>
       <c r="AN144" s="16" t="n">
-        <v>5820461</v>
+        <v>6086454</v>
       </c>
       <c r="AO144" s="16" t="n">
-        <v>6086454</v>
-      </c>
-      <c r="AP144" s="16" t="n">
         <v>6862831</v>
+      </c>
+      <c r="AP144" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ144" s="16" t="s">
         <v>57</v>
@@ -22670,33 +22670,33 @@
       <c r="L145" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M145" s="13" t="s">
-        <v>57</v>
+      <c r="M145" s="13" t="n">
+        <v>1529307</v>
       </c>
       <c r="N145" s="13" t="n">
-        <v>1529307</v>
+        <v>1631503</v>
       </c>
       <c r="O145" s="13" t="n">
-        <v>1631503</v>
+        <v>1683148</v>
       </c>
       <c r="P145" s="13" t="n">
-        <v>1683148</v>
+        <v>1688130</v>
       </c>
       <c r="Q145" s="13" t="n">
-        <v>1688130</v>
+        <v>1696190</v>
       </c>
       <c r="R145" s="13" t="n">
-        <v>1696190</v>
+        <v>1693891</v>
       </c>
       <c r="S145" s="13" t="n">
-        <v>1693891</v>
+        <v>1678327</v>
       </c>
       <c r="T145" s="13" t="n">
-        <v>1678327</v>
-      </c>
-      <c r="U145" s="13" t="n">
         <v>1673717</v>
       </c>
+      <c r="U145" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V145" s="13" t="s">
         <v>57</v>
       </c>
@@ -22757,44 +22757,44 @@
       <c r="AO145" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP145" s="13" t="s">
-        <v>57</v>
+      <c r="AP145" s="13" t="n">
+        <v>5759868</v>
       </c>
       <c r="AQ145" s="13" t="n">
-        <v>5759868</v>
+        <v>5305819</v>
       </c>
       <c r="AR145" s="13" t="n">
-        <v>5305819</v>
+        <v>6222852</v>
       </c>
       <c r="AS145" s="13" t="n">
-        <v>6222852</v>
+        <v>7896893</v>
       </c>
       <c r="AT145" s="13" t="n">
-        <v>7896893</v>
+        <v>9288755</v>
       </c>
       <c r="AU145" s="13" t="n">
-        <v>9288755</v>
+        <v>8576836</v>
       </c>
       <c r="AV145" s="13" t="n">
-        <v>8576836</v>
+        <v>7439523</v>
       </c>
       <c r="AW145" s="13" t="n">
-        <v>7439523</v>
+        <v>7098324</v>
       </c>
       <c r="AX145" s="13" t="n">
-        <v>7098324</v>
+        <v>7515643</v>
       </c>
       <c r="AY145" s="13" t="n">
-        <v>7515643</v>
+        <v>7135201</v>
       </c>
       <c r="AZ145" s="13" t="n">
-        <v>7135201</v>
+        <v>8114819</v>
       </c>
       <c r="BA145" s="13" t="n">
-        <v>8114819</v>
+        <v>10474051</v>
       </c>
       <c r="BB145" s="13" t="n">
-        <v>10474051</v>
+        <v>7837579</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22829,14 +22829,14 @@
       <c r="L146" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="M146" s="16" t="s">
-        <v>57</v>
+      <c r="M146" s="16" t="n">
+        <v>1637056</v>
       </c>
       <c r="N146" s="16" t="n">
-        <v>1637056</v>
+        <v>1778342</v>
       </c>
       <c r="O146" s="16" t="n">
-        <v>1778342</v>
+        <v>0</v>
       </c>
       <c r="P146" s="16" t="n">
         <v>0</v>
@@ -22844,8 +22844,8 @@
       <c r="Q146" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R146" s="16" t="n">
-        <v>0</v>
+      <c r="R146" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S146" s="16" t="s">
         <v>57</v>
@@ -23003,8 +23003,8 @@
       <c r="Q147" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R147" s="13" t="n">
-        <v>0</v>
+      <c r="R147" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S147" s="13" t="s">
         <v>57</v>
@@ -23147,23 +23147,23 @@
       <c r="L148" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="M148" s="16" t="s">
-        <v>57</v>
+      <c r="M148" s="16" t="n">
+        <v>1704685</v>
       </c>
       <c r="N148" s="16" t="n">
-        <v>1704685</v>
+        <v>1909311</v>
       </c>
       <c r="O148" s="16" t="n">
-        <v>1909311</v>
+        <v>2036001</v>
       </c>
       <c r="P148" s="16" t="n">
-        <v>2036001</v>
+        <v>2092243</v>
       </c>
       <c r="Q148" s="16" t="n">
-        <v>2092243</v>
-      </c>
-      <c r="R148" s="16" t="n">
         <v>3189189</v>
+      </c>
+      <c r="R148" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S148" s="16" t="s">
         <v>57</v>
@@ -23330,71 +23330,71 @@
       <c r="T149" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U149" s="13" t="s">
-        <v>57</v>
+      <c r="U149" s="13" t="n">
+        <v>1829883</v>
       </c>
       <c r="V149" s="13" t="n">
-        <v>1829883</v>
+        <v>2140572</v>
       </c>
       <c r="W149" s="13" t="n">
-        <v>2140572</v>
+        <v>2148866</v>
       </c>
       <c r="X149" s="13" t="n">
-        <v>2148866</v>
+        <v>2171330</v>
       </c>
       <c r="Y149" s="13" t="n">
-        <v>2171330</v>
+        <v>2171941</v>
       </c>
       <c r="Z149" s="13" t="n">
-        <v>2171941</v>
+        <v>2174225</v>
       </c>
       <c r="AA149" s="13" t="n">
-        <v>2174225</v>
+        <v>2173739</v>
       </c>
       <c r="AB149" s="13" t="n">
-        <v>2173739</v>
+        <v>2177625</v>
       </c>
       <c r="AC149" s="13" t="n">
-        <v>2177625</v>
+        <v>2189465</v>
       </c>
       <c r="AD149" s="13" t="n">
-        <v>2189465</v>
+        <v>2430918</v>
       </c>
       <c r="AE149" s="13" t="n">
-        <v>2430918</v>
+        <v>3073927</v>
       </c>
       <c r="AF149" s="13" t="n">
-        <v>3073927</v>
+        <v>3169969</v>
       </c>
       <c r="AG149" s="13" t="n">
-        <v>3169969</v>
+        <v>3598371</v>
       </c>
       <c r="AH149" s="13" t="n">
-        <v>3598371</v>
+        <v>4281260</v>
       </c>
       <c r="AI149" s="13" t="n">
-        <v>4281260</v>
+        <v>6253342</v>
       </c>
       <c r="AJ149" s="13" t="n">
-        <v>6253342</v>
+        <v>4267120</v>
       </c>
       <c r="AK149" s="13" t="n">
-        <v>4267120</v>
+        <v>4605594</v>
       </c>
       <c r="AL149" s="13" t="n">
-        <v>4605594</v>
+        <v>6005885</v>
       </c>
       <c r="AM149" s="13" t="n">
-        <v>6005885</v>
+        <v>5555735</v>
       </c>
       <c r="AN149" s="13" t="n">
-        <v>5555735</v>
+        <v>5928055</v>
       </c>
       <c r="AO149" s="13" t="n">
-        <v>5928055</v>
-      </c>
-      <c r="AP149" s="13" t="n">
         <v>6581007</v>
+      </c>
+      <c r="AP149" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ149" s="13" t="s">
         <v>57</v>
@@ -23480,18 +23480,18 @@
       <c r="Q150" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R150" s="16" t="s">
-        <v>57</v>
+      <c r="R150" s="16" t="n">
+        <v>2112372</v>
       </c>
       <c r="S150" s="16" t="n">
-        <v>2112372</v>
+        <v>2112456</v>
       </c>
       <c r="T150" s="16" t="n">
-        <v>2112456</v>
-      </c>
-      <c r="U150" s="16" t="n">
         <v>2121230</v>
       </c>
+      <c r="U150" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="V150" s="16" t="s">
         <v>57</v>
       </c>
@@ -23552,44 +23552,44 @@
       <c r="AO150" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP150" s="16" t="s">
-        <v>57</v>
+      <c r="AP150" s="16" t="n">
+        <v>6590549</v>
       </c>
       <c r="AQ150" s="16" t="n">
-        <v>6590549</v>
+        <v>6410867</v>
       </c>
       <c r="AR150" s="16" t="n">
-        <v>6410867</v>
+        <v>7092698</v>
       </c>
       <c r="AS150" s="16" t="n">
-        <v>7092698</v>
+        <v>7616583</v>
       </c>
       <c r="AT150" s="16" t="n">
-        <v>7616583</v>
+        <v>7193005</v>
       </c>
       <c r="AU150" s="16" t="n">
-        <v>7193005</v>
+        <v>6824233</v>
       </c>
       <c r="AV150" s="16" t="n">
-        <v>6824233</v>
+        <v>6808601</v>
       </c>
       <c r="AW150" s="16" t="n">
-        <v>6808601</v>
+        <v>6724574</v>
       </c>
       <c r="AX150" s="16" t="n">
-        <v>6724574</v>
+        <v>6762999</v>
       </c>
       <c r="AY150" s="16" t="n">
-        <v>6762999</v>
+        <v>6671844</v>
       </c>
       <c r="AZ150" s="16" t="n">
-        <v>6671844</v>
+        <v>6876294</v>
       </c>
       <c r="BA150" s="16" t="n">
-        <v>6876294</v>
+        <v>8048465</v>
       </c>
       <c r="BB150" s="16" t="n">
-        <v>8048465</v>
+        <v>7599325</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23639,18 +23639,18 @@
       <c r="Q151" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R151" s="13" t="s">
-        <v>57</v>
+      <c r="R151" s="13" t="n">
+        <v>1782618</v>
       </c>
       <c r="S151" s="13" t="n">
-        <v>1782618</v>
+        <v>1790183</v>
       </c>
       <c r="T151" s="13" t="n">
-        <v>1790183</v>
-      </c>
-      <c r="U151" s="13" t="n">
         <v>1790234</v>
       </c>
+      <c r="U151" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V151" s="13" t="s">
         <v>57</v>
       </c>
@@ -23711,44 +23711,44 @@
       <c r="AO151" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP151" s="13" t="s">
-        <v>57</v>
+      <c r="AP151" s="13" t="n">
+        <v>5801068</v>
       </c>
       <c r="AQ151" s="13" t="n">
-        <v>5801068</v>
+        <v>5644338</v>
       </c>
       <c r="AR151" s="13" t="n">
-        <v>5644338</v>
+        <v>6329617</v>
       </c>
       <c r="AS151" s="13" t="n">
-        <v>6329617</v>
+        <v>6995026</v>
       </c>
       <c r="AT151" s="13" t="n">
-        <v>6995026</v>
+        <v>6914522</v>
       </c>
       <c r="AU151" s="13" t="n">
-        <v>6914522</v>
+        <v>5930072</v>
       </c>
       <c r="AV151" s="13" t="n">
-        <v>5930072</v>
+        <v>5722627</v>
       </c>
       <c r="AW151" s="13" t="n">
-        <v>5722627</v>
+        <v>5442673</v>
       </c>
       <c r="AX151" s="13" t="n">
-        <v>5442673</v>
+        <v>5365999</v>
       </c>
       <c r="AY151" s="13" t="n">
-        <v>5365999</v>
+        <v>5324941</v>
       </c>
       <c r="AZ151" s="13" t="n">
-        <v>5324941</v>
+        <v>5230625</v>
       </c>
       <c r="BA151" s="13" t="n">
-        <v>5230625</v>
+        <v>5814119</v>
       </c>
       <c r="BB151" s="13" t="n">
-        <v>5814119</v>
+        <v>6418554</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23798,17 +23798,17 @@
       <c r="Q152" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R152" s="16" t="s">
-        <v>57</v>
+      <c r="R152" s="16" t="n">
+        <v>2165944</v>
       </c>
       <c r="S152" s="16" t="n">
-        <v>2165944</v>
+        <v>2172426</v>
       </c>
       <c r="T152" s="16" t="n">
-        <v>2172426</v>
-      </c>
-      <c r="U152" s="16" t="n">
         <v>2170933</v>
+      </c>
+      <c r="U152" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="V152" s="16" t="s">
         <v>57</v>
@@ -23942,23 +23942,23 @@
       <c r="L153" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M153" s="13" t="s">
-        <v>57</v>
+      <c r="M153" s="13" t="n">
+        <v>2089517</v>
       </c>
       <c r="N153" s="13" t="n">
-        <v>2089517</v>
+        <v>2072427</v>
       </c>
       <c r="O153" s="13" t="n">
-        <v>2072427</v>
+        <v>2066802</v>
       </c>
       <c r="P153" s="13" t="n">
-        <v>2066802</v>
+        <v>2093655</v>
       </c>
       <c r="Q153" s="13" t="n">
-        <v>2093655</v>
-      </c>
-      <c r="R153" s="13" t="n">
         <v>2098260</v>
+      </c>
+      <c r="R153" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S153" s="13" t="s">
         <v>57</v>
@@ -24101,23 +24101,23 @@
       <c r="L154" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="M154" s="16" t="s">
-        <v>57</v>
+      <c r="M154" s="16" t="n">
+        <v>1788672</v>
       </c>
       <c r="N154" s="16" t="n">
-        <v>1788672</v>
+        <v>1795318</v>
       </c>
       <c r="O154" s="16" t="n">
-        <v>1795318</v>
+        <v>1798491</v>
       </c>
       <c r="P154" s="16" t="n">
-        <v>1798491</v>
+        <v>1796144</v>
       </c>
       <c r="Q154" s="16" t="n">
-        <v>1796144</v>
-      </c>
-      <c r="R154" s="16" t="n">
         <v>1793073</v>
+      </c>
+      <c r="R154" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S154" s="16" t="s">
         <v>57</v>
@@ -24260,23 +24260,23 @@
       <c r="L155" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M155" s="13" t="s">
-        <v>57</v>
+      <c r="M155" s="13" t="n">
+        <v>1307940</v>
       </c>
       <c r="N155" s="13" t="n">
-        <v>1307940</v>
+        <v>1482942</v>
       </c>
       <c r="O155" s="13" t="n">
-        <v>1482942</v>
+        <v>0</v>
       </c>
       <c r="P155" s="13" t="n">
         <v>0</v>
       </c>
       <c r="Q155" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R155" s="13" t="n">
         <v>1352532</v>
+      </c>
+      <c r="R155" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S155" s="13" t="s">
         <v>57</v>
@@ -24443,41 +24443,41 @@
       <c r="T156" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U156" s="16" t="s">
-        <v>57</v>
+      <c r="U156" s="16" t="n">
+        <v>2251220</v>
       </c>
       <c r="V156" s="16" t="n">
-        <v>2251220</v>
+        <v>2335881</v>
       </c>
       <c r="W156" s="16" t="n">
-        <v>2335881</v>
+        <v>2587402</v>
       </c>
       <c r="X156" s="16" t="n">
-        <v>2587402</v>
+        <v>4144398</v>
       </c>
       <c r="Y156" s="16" t="n">
-        <v>4144398</v>
+        <v>3797386</v>
       </c>
       <c r="Z156" s="16" t="n">
-        <v>3797386</v>
+        <v>3873950</v>
       </c>
       <c r="AA156" s="16" t="n">
-        <v>3873950</v>
+        <v>3251163</v>
       </c>
       <c r="AB156" s="16" t="n">
-        <v>3251163</v>
+        <v>3596527</v>
       </c>
       <c r="AC156" s="16" t="n">
-        <v>3596527</v>
+        <v>3260163</v>
       </c>
       <c r="AD156" s="16" t="n">
-        <v>3260163</v>
+        <v>3830769</v>
       </c>
       <c r="AE156" s="16" t="n">
-        <v>3830769</v>
-      </c>
-      <c r="AF156" s="16" t="n">
         <v>4054187</v>
+      </c>
+      <c r="AF156" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AG156" s="16" t="s">
         <v>57</v>
@@ -24578,24 +24578,24 @@
       <c r="L157" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M157" s="13" t="s">
-        <v>57</v>
+      <c r="M157" s="13" t="n">
+        <v>2118667</v>
       </c>
       <c r="N157" s="13" t="n">
-        <v>2118667</v>
+        <v>2177764</v>
       </c>
       <c r="O157" s="13" t="n">
-        <v>2177764</v>
+        <v>2099269</v>
       </c>
       <c r="P157" s="13" t="n">
-        <v>2099269</v>
+        <v>2132431</v>
       </c>
       <c r="Q157" s="13" t="n">
-        <v>2132431</v>
-      </c>
-      <c r="R157" s="13" t="n">
         <v>2087847</v>
       </c>
+      <c r="R157" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S157" s="13" t="s">
         <v>57</v>
       </c>
@@ -24665,44 +24665,44 @@
       <c r="AO157" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP157" s="13" t="s">
-        <v>57</v>
+      <c r="AP157" s="13" t="n">
+        <v>6340538</v>
       </c>
       <c r="AQ157" s="13" t="n">
-        <v>6340538</v>
+        <v>6266989</v>
       </c>
       <c r="AR157" s="13" t="n">
-        <v>6266989</v>
+        <v>7589687</v>
       </c>
       <c r="AS157" s="13" t="n">
-        <v>7589687</v>
+        <v>8016150</v>
       </c>
       <c r="AT157" s="13" t="n">
-        <v>8016150</v>
+        <v>7715057</v>
       </c>
       <c r="AU157" s="13" t="n">
-        <v>7715057</v>
+        <v>7459711</v>
       </c>
       <c r="AV157" s="13" t="n">
-        <v>7459711</v>
+        <v>7596328</v>
       </c>
       <c r="AW157" s="13" t="n">
-        <v>7596328</v>
+        <v>7646358</v>
       </c>
       <c r="AX157" s="13" t="n">
-        <v>7646358</v>
+        <v>7601521</v>
       </c>
       <c r="AY157" s="13" t="n">
-        <v>7601521</v>
+        <v>7747781</v>
       </c>
       <c r="AZ157" s="13" t="n">
-        <v>7747781</v>
+        <v>8128957</v>
       </c>
       <c r="BA157" s="13" t="n">
-        <v>8128957</v>
+        <v>9051212</v>
       </c>
       <c r="BB157" s="13" t="n">
-        <v>9051212</v>
+        <v>9475250</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24761,38 +24761,38 @@
       <c r="T158" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U158" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="V158" s="16" t="n">
+      <c r="U158" s="16" t="n">
         <v>2493506</v>
       </c>
-      <c r="W158" s="16" t="s">
-        <v>57</v>
+      <c r="V158" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="W158" s="16" t="n">
+        <v>2924138</v>
       </c>
       <c r="X158" s="16" t="n">
-        <v>2924138</v>
+        <v>3598011</v>
       </c>
       <c r="Y158" s="16" t="n">
-        <v>3598011</v>
-      </c>
-      <c r="Z158" s="16" t="n">
         <v>2502591</v>
       </c>
-      <c r="AA158" s="16" t="s">
-        <v>57</v>
+      <c r="Z158" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA158" s="16" t="n">
+        <v>2461538</v>
       </c>
       <c r="AB158" s="16" t="n">
-        <v>2461538</v>
+        <v>2500000</v>
       </c>
       <c r="AC158" s="16" t="n">
-        <v>2500000</v>
+        <v>2500406</v>
       </c>
       <c r="AD158" s="16" t="n">
-        <v>2500406</v>
-      </c>
-      <c r="AE158" s="16" t="n">
         <v>2590909</v>
+      </c>
+      <c r="AE158" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AF158" s="16" t="s">
         <v>57</v>
@@ -24873,31 +24873,31 @@
       </c>
       <c r="D159" s="13"/>
       <c r="E159" s="13" t="n">
-        <v>1420004</v>
+        <v>1462087</v>
       </c>
       <c r="F159" s="13" t="n">
-        <v>1462087</v>
+        <v>1511083</v>
       </c>
       <c r="G159" s="13" t="n">
-        <v>1511083</v>
+        <v>1508288</v>
       </c>
       <c r="H159" s="13" t="n">
-        <v>1508288</v>
+        <v>1491823</v>
       </c>
       <c r="I159" s="13" t="n">
-        <v>1491823</v>
+        <v>1630700</v>
       </c>
       <c r="J159" s="13" t="n">
-        <v>1630700</v>
+        <v>1852561</v>
       </c>
       <c r="K159" s="13" t="n">
-        <v>1852561</v>
+        <v>1973473</v>
       </c>
       <c r="L159" s="13" t="n">
-        <v>1973473</v>
+        <v>1909944</v>
       </c>
       <c r="M159" s="13" t="n">
-        <v>1909944</v>
+        <v>0</v>
       </c>
       <c r="N159" s="13" t="n">
         <v>0</v>
@@ -24911,8 +24911,8 @@
       <c r="Q159" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R159" s="13" t="n">
-        <v>0</v>
+      <c r="R159" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S159" s="13" t="s">
         <v>57</v>
@@ -25073,15 +25073,15 @@
       <c r="R160" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="S160" s="16" t="s">
-        <v>57</v>
+      <c r="S160" s="16" t="n">
+        <v>1036083</v>
       </c>
       <c r="T160" s="16" t="n">
-        <v>1036083</v>
-      </c>
-      <c r="U160" s="16" t="n">
         <v>1100000</v>
       </c>
+      <c r="U160" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="V160" s="16" t="s">
         <v>57</v>
       </c>
@@ -25145,41 +25145,41 @@
       <c r="AP160" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AQ160" s="16" t="s">
-        <v>57</v>
+      <c r="AQ160" s="16" t="n">
+        <v>3900000</v>
       </c>
       <c r="AR160" s="16" t="n">
-        <v>3900000</v>
-      </c>
-      <c r="AS160" s="16" t="n">
         <v>3888889</v>
       </c>
+      <c r="AS160" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AT160" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AU160" s="16" t="s">
-        <v>57</v>
+      <c r="AU160" s="16" t="n">
+        <v>3914894</v>
       </c>
       <c r="AV160" s="16" t="n">
-        <v>3914894</v>
-      </c>
-      <c r="AW160" s="16" t="n">
         <v>3875000</v>
       </c>
-      <c r="AX160" s="16" t="s">
-        <v>57</v>
+      <c r="AW160" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX160" s="16" t="n">
+        <v>3916667</v>
       </c>
       <c r="AY160" s="16" t="n">
-        <v>3916667</v>
-      </c>
-      <c r="AZ160" s="16" t="n">
         <v>3800000</v>
       </c>
-      <c r="BA160" s="16" t="s">
-        <v>57</v>
+      <c r="AZ160" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA160" s="16" t="n">
+        <v>3884615</v>
       </c>
       <c r="BB160" s="16" t="n">
-        <v>3884615</v>
+        <v>5291667</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25214,11 +25214,11 @@
       <c r="L161" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M161" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="N161" s="13" t="n">
-        <v>0</v>
+      <c r="M161" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="O161" s="13" t="s">
         <v>57</v>
@@ -25373,95 +25373,95 @@
       <c r="L162" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="M162" s="16" t="s">
-        <v>57</v>
+      <c r="M162" s="16" t="n">
+        <v>972222</v>
       </c>
       <c r="N162" s="16" t="n">
-        <v>972222</v>
+        <v>0</v>
       </c>
       <c r="O162" s="16" t="n">
-        <v>0</v>
+        <v>960000</v>
       </c>
       <c r="P162" s="16" t="n">
-        <v>960000</v>
+        <v>1000000</v>
       </c>
       <c r="Q162" s="16" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="R162" s="16" t="n">
         <v>968750</v>
       </c>
+      <c r="R162" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="S162" s="16" t="s">
         <v>57</v>
       </c>
       <c r="T162" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U162" s="16" t="s">
-        <v>57</v>
+      <c r="U162" s="16" t="n">
+        <v>1097561</v>
       </c>
       <c r="V162" s="16" t="n">
-        <v>1097561</v>
+        <v>1100671</v>
       </c>
       <c r="W162" s="16" t="n">
-        <v>1100671</v>
+        <v>1138211</v>
       </c>
       <c r="X162" s="16" t="n">
-        <v>1138211</v>
+        <v>1144279</v>
       </c>
       <c r="Y162" s="16" t="n">
-        <v>1144279</v>
+        <v>1150000</v>
       </c>
       <c r="Z162" s="16" t="n">
-        <v>1150000</v>
+        <v>1243902</v>
       </c>
       <c r="AA162" s="16" t="n">
-        <v>1243902</v>
+        <v>1234694</v>
       </c>
       <c r="AB162" s="16" t="n">
-        <v>1234694</v>
-      </c>
-      <c r="AC162" s="16" t="n">
         <v>1259259</v>
       </c>
-      <c r="AD162" s="16" t="s">
-        <v>57</v>
+      <c r="AC162" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD162" s="16" t="n">
+        <v>1115385</v>
       </c>
       <c r="AE162" s="16" t="n">
         <v>1115385</v>
       </c>
       <c r="AF162" s="16" t="n">
-        <v>1115385</v>
-      </c>
-      <c r="AG162" s="16" t="n">
         <v>1422680</v>
       </c>
-      <c r="AH162" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI162" s="16" t="n">
+      <c r="AG162" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH162" s="16" t="n">
         <v>1769231</v>
       </c>
+      <c r="AI162" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ162" s="16" t="s">
         <v>57</v>
       </c>
       <c r="AK162" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AL162" s="16" t="s">
-        <v>57</v>
+      <c r="AL162" s="16" t="n">
+        <v>3916667</v>
       </c>
       <c r="AM162" s="16" t="n">
-        <v>3916667</v>
+        <v>3898990</v>
       </c>
       <c r="AN162" s="16" t="n">
-        <v>3898990</v>
+        <v>3857143</v>
       </c>
       <c r="AO162" s="16" t="n">
-        <v>3857143</v>
-      </c>
-      <c r="AP162" s="16" t="n">
         <v>3733333</v>
+      </c>
+      <c r="AP162" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ162" s="16" t="s">
         <v>57</v>
@@ -25535,8 +25535,8 @@
       <c r="M163" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="N163" s="13" t="s">
-        <v>57</v>
+      <c r="N163" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="O163" s="13" t="n">
         <v>0</v>
@@ -25547,8 +25547,8 @@
       <c r="Q163" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R163" s="13" t="n">
-        <v>0</v>
+      <c r="R163" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S163" s="13" t="s">
         <v>57</v>
@@ -25715,71 +25715,71 @@
       <c r="T164" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U164" s="16" t="s">
-        <v>57</v>
+      <c r="U164" s="16" t="n">
+        <v>1870741</v>
       </c>
       <c r="V164" s="16" t="n">
-        <v>1870741</v>
+        <v>2123448</v>
       </c>
       <c r="W164" s="16" t="n">
-        <v>2123448</v>
+        <v>2169449</v>
       </c>
       <c r="X164" s="16" t="n">
-        <v>2169449</v>
+        <v>2169839</v>
       </c>
       <c r="Y164" s="16" t="n">
-        <v>2169839</v>
+        <v>2169974</v>
       </c>
       <c r="Z164" s="16" t="n">
-        <v>2169974</v>
+        <v>2170370</v>
       </c>
       <c r="AA164" s="16" t="n">
-        <v>2170370</v>
+        <v>2173390</v>
       </c>
       <c r="AB164" s="16" t="n">
-        <v>2173390</v>
+        <v>2172297</v>
       </c>
       <c r="AC164" s="16" t="n">
-        <v>2172297</v>
+        <v>2205948</v>
       </c>
       <c r="AD164" s="16" t="n">
-        <v>2205948</v>
+        <v>2326146</v>
       </c>
       <c r="AE164" s="16" t="n">
-        <v>2326146</v>
+        <v>3062173</v>
       </c>
       <c r="AF164" s="16" t="n">
-        <v>3062173</v>
+        <v>3131321</v>
       </c>
       <c r="AG164" s="16" t="n">
-        <v>3131321</v>
+        <v>3759898</v>
       </c>
       <c r="AH164" s="16" t="n">
-        <v>3759898</v>
+        <v>3890150</v>
       </c>
       <c r="AI164" s="16" t="n">
-        <v>3890150</v>
+        <v>5047431</v>
       </c>
       <c r="AJ164" s="16" t="n">
-        <v>5047431</v>
+        <v>3752793</v>
       </c>
       <c r="AK164" s="16" t="n">
-        <v>3752793</v>
+        <v>3671795</v>
       </c>
       <c r="AL164" s="16" t="n">
-        <v>3671795</v>
+        <v>4725543</v>
       </c>
       <c r="AM164" s="16" t="n">
-        <v>4725543</v>
+        <v>4087678</v>
       </c>
       <c r="AN164" s="16" t="n">
-        <v>4087678</v>
+        <v>4723576</v>
       </c>
       <c r="AO164" s="16" t="n">
-        <v>4723576</v>
-      </c>
-      <c r="AP164" s="16" t="n">
         <v>5965132</v>
+      </c>
+      <c r="AP164" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ164" s="16" t="s">
         <v>57</v>
@@ -25874,71 +25874,71 @@
       <c r="T165" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U165" s="13" t="s">
-        <v>57</v>
+      <c r="U165" s="13" t="n">
+        <v>2141443</v>
       </c>
       <c r="V165" s="13" t="n">
-        <v>2141443</v>
+        <v>2483704</v>
       </c>
       <c r="W165" s="13" t="n">
-        <v>2483704</v>
+        <v>2660830</v>
       </c>
       <c r="X165" s="13" t="n">
-        <v>2660830</v>
+        <v>2708188</v>
       </c>
       <c r="Y165" s="13" t="n">
-        <v>2708188</v>
+        <v>2935080</v>
       </c>
       <c r="Z165" s="13" t="n">
-        <v>2935080</v>
+        <v>3011124</v>
       </c>
       <c r="AA165" s="13" t="n">
-        <v>3011124</v>
+        <v>3021183</v>
       </c>
       <c r="AB165" s="13" t="n">
-        <v>3021183</v>
+        <v>3047521</v>
       </c>
       <c r="AC165" s="13" t="n">
-        <v>3047521</v>
+        <v>3085538</v>
       </c>
       <c r="AD165" s="13" t="n">
-        <v>3085538</v>
+        <v>3226196</v>
       </c>
       <c r="AE165" s="13" t="n">
-        <v>3226196</v>
+        <v>4254768</v>
       </c>
       <c r="AF165" s="13" t="n">
-        <v>4254768</v>
+        <v>4501905</v>
       </c>
       <c r="AG165" s="13" t="n">
-        <v>4501905</v>
+        <v>5244459</v>
       </c>
       <c r="AH165" s="13" t="n">
-        <v>5244459</v>
+        <v>5892204</v>
       </c>
       <c r="AI165" s="13" t="n">
-        <v>5892204</v>
+        <v>8678271</v>
       </c>
       <c r="AJ165" s="13" t="n">
-        <v>8678271</v>
+        <v>5756584</v>
       </c>
       <c r="AK165" s="13" t="n">
-        <v>5756584</v>
+        <v>5637856</v>
       </c>
       <c r="AL165" s="13" t="n">
-        <v>5637856</v>
+        <v>5642860</v>
       </c>
       <c r="AM165" s="13" t="n">
-        <v>5642860</v>
+        <v>5329025</v>
       </c>
       <c r="AN165" s="13" t="n">
-        <v>5329025</v>
+        <v>5778622</v>
       </c>
       <c r="AO165" s="13" t="n">
-        <v>5778622</v>
-      </c>
-      <c r="AP165" s="13" t="n">
         <v>6620497</v>
+      </c>
+      <c r="AP165" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ165" s="13" t="s">
         <v>57</v>
@@ -26027,11 +26027,11 @@
       <c r="R166" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="S166" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="T166" s="16" t="n">
+      <c r="S166" s="16" t="n">
         <v>1550035</v>
+      </c>
+      <c r="T166" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="U166" s="16" t="s">
         <v>57</v>
@@ -26189,12 +26189,12 @@
       <c r="S167" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T167" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U167" s="13" t="n">
+      <c r="T167" s="13" t="n">
         <v>9520000</v>
       </c>
+      <c r="U167" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V167" s="13" t="s">
         <v>57</v>
       </c>
@@ -26204,15 +26204,15 @@
       <c r="X167" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y167" s="13" t="s">
-        <v>57</v>
+      <c r="Y167" s="13" t="n">
+        <v>10900000</v>
       </c>
       <c r="Z167" s="13" t="n">
-        <v>10900000</v>
-      </c>
-      <c r="AA167" s="13" t="n">
         <v>10739130</v>
       </c>
+      <c r="AA167" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AB167" s="13" t="s">
         <v>57</v>
       </c>
@@ -26231,53 +26231,53 @@
       <c r="AG167" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH167" s="13" t="s">
-        <v>57</v>
+      <c r="AH167" s="13" t="n">
+        <v>15693878</v>
       </c>
       <c r="AI167" s="13" t="n">
-        <v>15693878</v>
+        <v>15377358</v>
       </c>
       <c r="AJ167" s="13" t="n">
-        <v>15377358</v>
+        <v>15520000</v>
       </c>
       <c r="AK167" s="13" t="n">
-        <v>15520000</v>
+        <v>15630435</v>
       </c>
       <c r="AL167" s="13" t="n">
-        <v>15630435</v>
+        <v>15300000</v>
       </c>
       <c r="AM167" s="13" t="n">
-        <v>15300000</v>
+        <v>18400000</v>
       </c>
       <c r="AN167" s="13" t="n">
-        <v>18400000</v>
-      </c>
-      <c r="AO167" s="13" t="n">
         <v>18791667</v>
       </c>
+      <c r="AO167" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AP167" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ167" s="13" t="s">
-        <v>57</v>
+      <c r="AQ167" s="13" t="n">
+        <v>22241935</v>
       </c>
       <c r="AR167" s="13" t="n">
-        <v>22241935</v>
+        <v>21936170</v>
       </c>
       <c r="AS167" s="13" t="n">
-        <v>21936170</v>
-      </c>
-      <c r="AT167" s="13" t="n">
         <v>21884615</v>
       </c>
-      <c r="AU167" s="13" t="s">
-        <v>57</v>
+      <c r="AT167" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU167" s="13" t="n">
+        <v>45000000</v>
       </c>
       <c r="AV167" s="13" t="n">
-        <v>45000000</v>
-      </c>
-      <c r="AW167" s="13" t="n">
         <v>44930556</v>
+      </c>
+      <c r="AW167" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AX167" s="13" t="s">
         <v>57</v>
@@ -26351,11 +26351,11 @@
       <c r="T168" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U168" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="V168" s="16" t="n">
+      <c r="U168" s="16" t="n">
         <v>9600000</v>
+      </c>
+      <c r="V168" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="W168" s="16" t="s">
         <v>57</v>
@@ -26516,11 +26516,11 @@
       <c r="V169" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W169" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X169" s="13" t="n">
+      <c r="W169" s="13" t="n">
         <v>2000000</v>
+      </c>
+      <c r="X169" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="Y169" s="13" t="s">
         <v>57</v>
@@ -26669,15 +26669,15 @@
       <c r="T170" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U170" s="16" t="s">
-        <v>57</v>
+      <c r="U170" s="16" t="n">
+        <v>1649800</v>
       </c>
       <c r="V170" s="16" t="n">
-        <v>1649800</v>
-      </c>
-      <c r="W170" s="16" t="n">
         <v>1650549</v>
       </c>
+      <c r="W170" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="X170" s="16" t="s">
         <v>57</v>
       </c>
@@ -26693,14 +26693,14 @@
       <c r="AB170" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AC170" s="16" t="s">
-        <v>57</v>
+      <c r="AC170" s="16" t="n">
+        <v>5000000</v>
       </c>
       <c r="AD170" s="16" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="AE170" s="16" t="n">
         <v>4998853</v>
+      </c>
+      <c r="AE170" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AF170" s="16" t="s">
         <v>57</v>
@@ -26831,23 +26831,23 @@
       <c r="U171" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V171" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W171" s="13" t="n">
+      <c r="V171" s="13" t="n">
         <v>1902058</v>
       </c>
+      <c r="W171" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="X171" s="13" t="s">
         <v>57</v>
       </c>
       <c r="Y171" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z171" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA171" s="13" t="n">
+      <c r="Z171" s="13" t="n">
         <v>5122164</v>
+      </c>
+      <c r="AA171" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AB171" s="13" t="s">
         <v>57</v>
@@ -26984,11 +26984,11 @@
       <c r="S172" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="T172" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="U172" s="16" t="n">
+      <c r="T172" s="16" t="n">
         <v>1649197</v>
+      </c>
+      <c r="U172" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="V172" s="16" t="s">
         <v>57</v>
